--- a/1-100/完成时间表mac.xlsx
+++ b/1-100/完成时间表mac.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443E872-799C-41D4-8288-1DDE70449BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Number</t>
   </si>
@@ -28,25 +44,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -153,74 +162,108 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -422,7 +465,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -441,7 +484,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -471,7 +514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -497,7 +540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -523,7 +566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,9 +735,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -711,7 +760,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -730,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +857,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +883,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -860,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +935,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1013,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,9 +1026,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -993,7 +1048,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1012,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1279,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,48 +1318,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E565"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV565"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1313,7 +1372,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1322,7 +1381,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1331,7 +1390,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1340,7 +1399,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1349,7 +1408,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1358,7 +1417,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1367,7 +1426,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1376,7 +1435,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1385,7 +1444,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1394,7 +1453,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1403,7 +1462,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1412,7 +1471,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1421,7 +1480,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1430,7 +1489,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1439,7 +1498,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1448,7 +1507,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1457,7 +1516,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1466,7 +1525,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1475,7 +1534,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1484,7 +1543,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1493,7 +1552,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1502,7 +1561,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1511,7 +1570,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1520,7 +1579,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1529,7 +1588,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1538,7 +1597,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1547,7 +1606,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1556,7 +1615,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1565,7 +1624,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1574,7 +1633,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1583,7 +1642,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1592,7 +1651,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1601,7 +1660,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1610,7 +1669,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1619,7 +1678,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1628,7 +1687,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1637,7 +1696,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1646,7 +1705,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1655,7 +1714,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1664,7 +1723,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1673,7 +1732,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1682,7 +1741,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1691,7 +1750,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1700,7 +1759,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1709,7 +1768,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1718,7 +1777,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1727,7 +1786,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1736,7 +1795,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1745,7 +1804,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1754,7 +1813,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1763,7 +1822,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1772,7 +1831,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1781,7 +1840,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1790,7 +1849,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1799,7 +1858,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -1808,7 +1867,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1817,7 +1876,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -1832,7 +1891,7 @@
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1848,7 +1907,7 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -1857,14 +1916,14 @@
         <v>1800</v>
       </c>
       <c r="C61" s="4">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="D61" s="4">
         <v>15.9</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -1879,7 +1938,7 @@
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -1887,14 +1946,14 @@
         <v>180</v>
       </c>
       <c r="C63" s="4">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="D63" s="4">
         <v>71</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -1909,7 +1968,7 @@
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1924,7 +1983,7 @@
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -1940,7 +1999,7 @@
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -1955,7 +2014,7 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -1970,7 +2029,7 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -1985,7 +2044,7 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2001,7 +2060,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -2017,7 +2076,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -2026,7 +2085,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2035,7 +2094,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2044,7 +2103,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2053,7 +2112,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2068,7 +2127,7 @@
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -2083,7 +2142,7 @@
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -2098,7 +2157,7 @@
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -2113,7 +2172,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -2128,7 +2187,7 @@
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
+    <row r="81" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -2143,7 +2202,7 @@
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -2158,7 +2217,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -2173,7 +2232,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -2188,7 +2247,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -2204,7 +2263,7 @@
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -2220,7 +2279,7 @@
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -2236,7 +2295,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2251,7 +2310,7 @@
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -2267,7 +2326,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -2283,7 +2342,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2299,7 +2358,7 @@
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2315,7 +2374,7 @@
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -2331,7 +2390,7 @@
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -2347,7 +2406,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -2362,7 +2421,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -2378,7 +2437,7 @@
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -2387,7 +2446,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -2403,7 +2462,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -2412,7 +2471,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -2421,7 +2480,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -2430,7 +2489,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" ht="16" customHeight="1">
+    <row r="102" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -2439,7 +2498,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -2448,7 +2507,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -2457,7 +2516,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -2466,7 +2525,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -2475,7 +2534,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -2484,7 +2543,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -2493,7 +2552,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -2502,7 +2561,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -2518,7 +2577,7 @@
       </c>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -2533,7 +2592,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -2548,7 +2607,7 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -2563,97 +2622,151 @@
       </c>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+      <c r="B114" s="3">
+        <f>11*60 + 37</f>
+        <v>697</v>
+      </c>
+      <c r="C114" s="3">
+        <v>96</v>
+      </c>
+      <c r="D114" s="3">
+        <v>58</v>
+      </c>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="3">
+        <v>1222</v>
+      </c>
+      <c r="C115" s="3">
+        <v>79</v>
+      </c>
+      <c r="D115" s="3">
+        <v>13</v>
+      </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="3">
+        <f>7*60 +22</f>
+        <v>442</v>
+      </c>
+      <c r="C117" s="3">
+        <v>95</v>
+      </c>
+      <c r="D117" s="3">
+        <v>71</v>
+      </c>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="B118" s="3">
+        <v>314</v>
+      </c>
+      <c r="C118" s="3">
+        <v>98</v>
+      </c>
+      <c r="D118" s="3">
+        <v>85</v>
+      </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" ht="16" customHeight="1">
+    <row r="119" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="B119" s="3">
+        <f>11 * 60 + 14</f>
+        <v>674</v>
+      </c>
+      <c r="C119" s="3">
+        <v>98</v>
+      </c>
+      <c r="D119" s="3">
+        <v>83</v>
+      </c>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="B120" s="3">
+        <v>181</v>
+      </c>
+      <c r="C120" s="3">
+        <v>93</v>
+      </c>
+      <c r="D120" s="3">
+        <v>44</v>
+      </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
+      <c r="B121" s="3">
+        <v>360</v>
+      </c>
+      <c r="C121" s="3">
+        <v>87</v>
+      </c>
+      <c r="D121" s="3">
+        <v>35</v>
+      </c>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" ht="16" customHeight="1">
+    <row r="122" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
+      <c r="B122" s="3">
+        <v>210</v>
+      </c>
+      <c r="C122" s="3">
+        <v>86</v>
+      </c>
+      <c r="D122" s="3">
+        <v>98</v>
+      </c>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="B123" s="3">
+        <v>378</v>
+      </c>
+      <c r="C123" s="3">
+        <v>100</v>
+      </c>
+      <c r="D123" s="3">
+        <v>72</v>
+      </c>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" ht="16" customHeight="1">
+    <row r="124" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -2662,7 +2775,7 @@
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" ht="16" customHeight="1">
+    <row r="125" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -2671,7 +2784,7 @@
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -2680,7 +2793,7 @@
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -2689,7 +2802,7 @@
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" ht="16" customHeight="1">
+    <row r="128" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -2698,7 +2811,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -2707,7 +2820,7 @@
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -2716,7 +2829,7 @@
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -2725,7 +2838,7 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -2734,7 +2847,7 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -2743,7 +2856,7 @@
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -2752,7 +2865,7 @@
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -2761,7 +2874,7 @@
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -2770,7 +2883,7 @@
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -2779,7 +2892,7 @@
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -2788,7 +2901,7 @@
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -2797,7 +2910,7 @@
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -2806,7 +2919,7 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -2815,7 +2928,7 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -2824,7 +2937,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -2833,7 +2946,7 @@
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -2842,7 +2955,7 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -2851,7 +2964,7 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -2860,7 +2973,7 @@
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -2869,7 +2982,7 @@
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -2878,7 +2991,7 @@
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -2887,7 +3000,7 @@
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -2896,7 +3009,7 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -2905,7 +3018,7 @@
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -2914,7 +3027,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -2923,7 +3036,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -2932,7 +3045,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -2941,7 +3054,7 @@
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -2950,7 +3063,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -2959,7 +3072,7 @@
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -2968,7 +3081,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -2977,7 +3090,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -2986,7 +3099,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -2995,7 +3108,7 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -3004,7 +3117,7 @@
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -3013,7 +3126,7 @@
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -3022,7 +3135,7 @@
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -3031,7 +3144,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -3040,7 +3153,7 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -3049,7 +3162,7 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -3058,7 +3171,7 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -3067,7 +3180,7 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -3076,7 +3189,7 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" ht="16" customHeight="1">
+    <row r="171" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -3085,7 +3198,7 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -3094,7 +3207,7 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -3103,7 +3216,7 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -3112,7 +3225,7 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -3121,7 +3234,7 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -3130,7 +3243,7 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" ht="16" customHeight="1">
+    <row r="177" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -3139,7 +3252,7 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -3148,7 +3261,7 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -3157,7 +3270,7 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" ht="16" customHeight="1">
+    <row r="180" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -3166,7 +3279,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -3175,7 +3288,7 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" ht="16" customHeight="1">
+    <row r="182" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -3184,7 +3297,7 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" ht="16" customHeight="1">
+    <row r="183" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -3193,7 +3306,7 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -3202,7 +3315,7 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -3211,7 +3324,7 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -3220,7 +3333,7 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -3229,7 +3342,7 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -3238,7 +3351,7 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -3247,7 +3360,7 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" ht="16" customHeight="1">
+    <row r="190" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -3256,7 +3369,7 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -3265,7 +3378,7 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -3274,7 +3387,7 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -3283,7 +3396,7 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -3292,7 +3405,7 @@
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -3301,7 +3414,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -3310,7 +3423,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" ht="16" customHeight="1">
+    <row r="197" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -3319,7 +3432,7 @@
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" ht="16" customHeight="1">
+    <row r="198" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -3328,7 +3441,7 @@
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" ht="16" customHeight="1">
+    <row r="199" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -3337,7 +3450,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" ht="16" customHeight="1">
+    <row r="200" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -3346,7 +3459,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" ht="16" customHeight="1">
+    <row r="201" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -3355,7 +3468,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" ht="16" customHeight="1">
+    <row r="202" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>201</v>
       </c>
@@ -3364,7 +3477,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" ht="16" customHeight="1">
+    <row r="203" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -3373,7 +3486,7 @@
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" ht="16" customHeight="1">
+    <row r="204" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -3382,7 +3495,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" ht="16" customHeight="1">
+    <row r="205" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -3391,7 +3504,7 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" ht="16" customHeight="1">
+    <row r="206" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -3400,7 +3513,7 @@
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" ht="16" customHeight="1">
+    <row r="207" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -3409,7 +3522,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" ht="16" customHeight="1">
+    <row r="208" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -3418,7 +3531,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" ht="16" customHeight="1">
+    <row r="209" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -3427,7 +3540,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" ht="16" customHeight="1">
+    <row r="210" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -3436,7 +3549,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" ht="16" customHeight="1">
+    <row r="211" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -3445,7 +3558,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" ht="16" customHeight="1">
+    <row r="212" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -3454,7 +3567,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" ht="16" customHeight="1">
+    <row r="213" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -3463,7 +3576,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" ht="16" customHeight="1">
+    <row r="214" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -3472,7 +3585,7 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" ht="16" customHeight="1">
+    <row r="215" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -3481,7 +3594,7 @@
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" ht="16" customHeight="1">
+    <row r="216" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -3490,7 +3603,7 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" ht="16" customHeight="1">
+    <row r="217" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -3499,7 +3612,7 @@
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" ht="16" customHeight="1">
+    <row r="218" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -3508,7 +3621,7 @@
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" ht="16" customHeight="1">
+    <row r="219" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -3517,7 +3630,7 @@
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" ht="16" customHeight="1">
+    <row r="220" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -3526,7 +3639,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" ht="16" customHeight="1">
+    <row r="221" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -3535,7 +3648,7 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" ht="16" customHeight="1">
+    <row r="222" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -3544,7 +3657,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" ht="16" customHeight="1">
+    <row r="223" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -3553,7 +3666,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" ht="16" customHeight="1">
+    <row r="224" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -3562,7 +3675,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" ht="16" customHeight="1">
+    <row r="225" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -3571,7 +3684,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" ht="16" customHeight="1">
+    <row r="226" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -3580,7 +3693,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" ht="16" customHeight="1">
+    <row r="227" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -3589,7 +3702,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" ht="16" customHeight="1">
+    <row r="228" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>227</v>
       </c>
@@ -3598,7 +3711,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" ht="16" customHeight="1">
+    <row r="229" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -3607,7 +3720,7 @@
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" ht="16" customHeight="1">
+    <row r="230" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -3616,7 +3729,7 @@
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" ht="16" customHeight="1">
+    <row r="231" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -3625,7 +3738,7 @@
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" ht="16" customHeight="1">
+    <row r="232" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -3634,7 +3747,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" ht="16" customHeight="1">
+    <row r="233" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -3643,7 +3756,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" ht="16" customHeight="1">
+    <row r="234" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -3652,7 +3765,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" ht="16" customHeight="1">
+    <row r="235" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -3661,7 +3774,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" ht="16" customHeight="1">
+    <row r="236" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -3670,7 +3783,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" ht="16" customHeight="1">
+    <row r="237" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -3679,7 +3792,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" ht="16" customHeight="1">
+    <row r="238" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>237</v>
       </c>
@@ -3688,7 +3801,7 @@
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" ht="16" customHeight="1">
+    <row r="239" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -3697,7 +3810,7 @@
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" ht="16" customHeight="1">
+    <row r="240" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>239</v>
       </c>
@@ -3706,7 +3819,7 @@
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" ht="16" customHeight="1">
+    <row r="241" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -3715,7 +3828,7 @@
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" ht="16" customHeight="1">
+    <row r="242" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -3724,7 +3837,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" ht="16" customHeight="1">
+    <row r="243" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -3733,7 +3846,7 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" ht="16" customHeight="1">
+    <row r="244" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>243</v>
       </c>
@@ -3742,7 +3855,7 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" ht="16" customHeight="1">
+    <row r="245" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>244</v>
       </c>
@@ -3751,7 +3864,7 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" ht="16" customHeight="1">
+    <row r="246" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -3760,7 +3873,7 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" ht="16" customHeight="1">
+    <row r="247" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -3769,7 +3882,7 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" ht="16" customHeight="1">
+    <row r="248" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -3778,7 +3891,7 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" ht="16" customHeight="1">
+    <row r="249" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -3787,7 +3900,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" ht="16" customHeight="1">
+    <row r="250" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -3796,7 +3909,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" ht="16" customHeight="1">
+    <row r="251" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>250</v>
       </c>
@@ -3805,2198 +3918,2198 @@
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" ht="16" customHeight="1">
+    <row r="252" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" ht="16" customHeight="1">
+    <row r="253" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" ht="16" customHeight="1">
+    <row r="254" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" ht="16" customHeight="1">
+    <row r="255" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" ht="16" customHeight="1">
+    <row r="256" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" ht="16" customHeight="1">
+    <row r="257" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" ht="16" customHeight="1">
+    <row r="258" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" ht="16" customHeight="1">
+    <row r="259" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" ht="16" customHeight="1">
+    <row r="260" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" ht="16" customHeight="1">
+    <row r="261" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" ht="16" customHeight="1">
+    <row r="262" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" ht="16" customHeight="1">
+    <row r="263" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" ht="16" customHeight="1">
+    <row r="264" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" ht="16" customHeight="1">
+    <row r="265" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" ht="16" customHeight="1">
+    <row r="266" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" ht="16" customHeight="1">
+    <row r="267" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" ht="16" customHeight="1">
+    <row r="268" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" ht="16" customHeight="1">
+    <row r="269" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" ht="16" customHeight="1">
+    <row r="270" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" ht="16" customHeight="1">
+    <row r="271" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" ht="16" customHeight="1">
+    <row r="272" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" ht="16" customHeight="1">
+    <row r="273" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" ht="16" customHeight="1">
+    <row r="274" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" ht="16" customHeight="1">
+    <row r="275" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" ht="16" customHeight="1">
+    <row r="276" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" ht="16" customHeight="1">
+    <row r="277" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" ht="16" customHeight="1">
+    <row r="278" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" ht="16" customHeight="1">
+    <row r="279" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" ht="16" customHeight="1">
+    <row r="280" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" ht="16" customHeight="1">
+    <row r="281" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" ht="16" customHeight="1">
+    <row r="282" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" ht="16" customHeight="1">
+    <row r="283" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" ht="16" customHeight="1">
+    <row r="284" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" ht="16" customHeight="1">
+    <row r="285" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" ht="16" customHeight="1">
+    <row r="286" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" ht="16" customHeight="1">
+    <row r="287" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" ht="16" customHeight="1">
+    <row r="288" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" ht="16" customHeight="1">
+    <row r="289" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" ht="16" customHeight="1">
+    <row r="290" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" ht="16" customHeight="1">
+    <row r="291" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" ht="16" customHeight="1">
+    <row r="292" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" ht="16" customHeight="1">
+    <row r="293" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" ht="16" customHeight="1">
+    <row r="294" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" ht="16" customHeight="1">
+    <row r="295" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" ht="16" customHeight="1">
+    <row r="296" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" ht="16" customHeight="1">
+    <row r="297" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" ht="16" customHeight="1">
+    <row r="298" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" ht="16" customHeight="1">
+    <row r="299" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" ht="16" customHeight="1">
+    <row r="300" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" ht="16" customHeight="1">
+    <row r="301" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" ht="16" customHeight="1">
+    <row r="302" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" ht="16" customHeight="1">
+    <row r="303" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" ht="16" customHeight="1">
+    <row r="304" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" ht="16" customHeight="1">
+    <row r="305" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" ht="16" customHeight="1">
+    <row r="306" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" ht="16" customHeight="1">
+    <row r="307" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" ht="16" customHeight="1">
+    <row r="308" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" ht="16" customHeight="1">
+    <row r="309" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" ht="16" customHeight="1">
+    <row r="310" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" ht="16" customHeight="1">
+    <row r="311" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" ht="16" customHeight="1">
+    <row r="312" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" ht="16" customHeight="1">
+    <row r="313" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" ht="16" customHeight="1">
+    <row r="314" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" ht="16" customHeight="1">
+    <row r="315" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" ht="16" customHeight="1">
+    <row r="316" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" ht="16" customHeight="1">
+    <row r="317" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" ht="16" customHeight="1">
+    <row r="318" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" ht="16" customHeight="1">
+    <row r="319" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" ht="16" customHeight="1">
+    <row r="320" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" ht="16" customHeight="1">
+    <row r="321" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" ht="16" customHeight="1">
+    <row r="322" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" ht="16" customHeight="1">
+    <row r="323" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" ht="16" customHeight="1">
+    <row r="324" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" ht="16" customHeight="1">
+    <row r="325" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" ht="16" customHeight="1">
+    <row r="326" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" ht="16" customHeight="1">
+    <row r="327" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" ht="16" customHeight="1">
+    <row r="328" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" ht="16" customHeight="1">
+    <row r="329" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" ht="16" customHeight="1">
+    <row r="330" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" ht="16" customHeight="1">
+    <row r="331" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" ht="16" customHeight="1">
+    <row r="332" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" ht="16" customHeight="1">
+    <row r="333" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" ht="16" customHeight="1">
+    <row r="334" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" ht="16" customHeight="1">
+    <row r="335" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" ht="16" customHeight="1">
+    <row r="336" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" ht="16" customHeight="1">
+    <row r="337" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" ht="16" customHeight="1">
+    <row r="338" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" ht="16" customHeight="1">
+    <row r="339" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" ht="16" customHeight="1">
+    <row r="340" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" ht="16" customHeight="1">
+    <row r="341" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" ht="16" customHeight="1">
+    <row r="342" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" ht="16" customHeight="1">
+    <row r="343" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" ht="16" customHeight="1">
+    <row r="344" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" ht="16" customHeight="1">
+    <row r="345" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" ht="16" customHeight="1">
+    <row r="346" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" ht="16" customHeight="1">
+    <row r="347" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" ht="16" customHeight="1">
+    <row r="348" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" ht="16" customHeight="1">
+    <row r="349" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" ht="16" customHeight="1">
+    <row r="350" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" ht="16" customHeight="1">
+    <row r="351" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" ht="16" customHeight="1">
+    <row r="352" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" ht="16" customHeight="1">
+    <row r="353" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" ht="16" customHeight="1">
+    <row r="354" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" ht="16" customHeight="1">
+    <row r="355" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" ht="16" customHeight="1">
+    <row r="356" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" ht="16" customHeight="1">
+    <row r="357" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" ht="16" customHeight="1">
+    <row r="358" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" ht="16" customHeight="1">
+    <row r="359" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" ht="16" customHeight="1">
+    <row r="360" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" ht="16" customHeight="1">
+    <row r="361" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" ht="16" customHeight="1">
+    <row r="362" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" ht="16" customHeight="1">
+    <row r="363" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" ht="16" customHeight="1">
+    <row r="364" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" ht="16" customHeight="1">
+    <row r="365" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" ht="16" customHeight="1">
+    <row r="366" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" ht="16" customHeight="1">
+    <row r="367" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" ht="16" customHeight="1">
+    <row r="368" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" ht="16" customHeight="1">
+    <row r="369" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" ht="16" customHeight="1">
+    <row r="370" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" ht="16" customHeight="1">
+    <row r="371" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" ht="16" customHeight="1">
+    <row r="372" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" ht="16" customHeight="1">
+    <row r="373" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" ht="16" customHeight="1">
+    <row r="374" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" ht="16" customHeight="1">
+    <row r="375" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" ht="16" customHeight="1">
+    <row r="376" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" ht="16" customHeight="1">
+    <row r="377" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" ht="16" customHeight="1">
+    <row r="378" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" ht="16" customHeight="1">
+    <row r="379" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" ht="16" customHeight="1">
+    <row r="380" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" ht="16" customHeight="1">
+    <row r="381" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" ht="16" customHeight="1">
+    <row r="382" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" ht="16" customHeight="1">
+    <row r="383" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" ht="16" customHeight="1">
+    <row r="384" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" ht="16" customHeight="1">
+    <row r="385" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" ht="16" customHeight="1">
+    <row r="386" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" ht="16" customHeight="1">
+    <row r="387" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" ht="16" customHeight="1">
+    <row r="388" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" ht="16" customHeight="1">
+    <row r="389" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" ht="16" customHeight="1">
+    <row r="390" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" ht="16" customHeight="1">
+    <row r="391" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" ht="16" customHeight="1">
+    <row r="392" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" ht="16" customHeight="1">
+    <row r="393" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" ht="16" customHeight="1">
+    <row r="394" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" ht="16" customHeight="1">
+    <row r="395" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" ht="16" customHeight="1">
+    <row r="396" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" ht="16" customHeight="1">
+    <row r="397" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" ht="16" customHeight="1">
+    <row r="398" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" ht="16" customHeight="1">
+    <row r="399" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" ht="16" customHeight="1">
+    <row r="400" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" ht="16" customHeight="1">
+    <row r="401" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" ht="16" customHeight="1">
+    <row r="402" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" ht="16" customHeight="1">
+    <row r="403" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" ht="16" customHeight="1">
+    <row r="404" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" ht="16" customHeight="1">
+    <row r="405" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" ht="16" customHeight="1">
+    <row r="406" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" ht="16" customHeight="1">
+    <row r="407" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" ht="16" customHeight="1">
+    <row r="408" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" ht="16" customHeight="1">
+    <row r="409" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" ht="16" customHeight="1">
+    <row r="410" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" ht="16" customHeight="1">
+    <row r="411" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" ht="16" customHeight="1">
+    <row r="412" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" ht="16" customHeight="1">
+    <row r="413" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" ht="16" customHeight="1">
+    <row r="414" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" ht="16" customHeight="1">
+    <row r="415" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" ht="16" customHeight="1">
+    <row r="416" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" ht="16" customHeight="1">
+    <row r="417" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" ht="16" customHeight="1">
+    <row r="418" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" ht="16" customHeight="1">
+    <row r="419" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" ht="16" customHeight="1">
+    <row r="420" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" ht="16" customHeight="1">
+    <row r="421" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" ht="16" customHeight="1">
+    <row r="422" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" ht="16" customHeight="1">
+    <row r="423" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" ht="16" customHeight="1">
+    <row r="424" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" ht="16" customHeight="1">
+    <row r="425" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" ht="16" customHeight="1">
+    <row r="426" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" ht="16" customHeight="1">
+    <row r="427" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" ht="16" customHeight="1">
+    <row r="428" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" ht="16" customHeight="1">
+    <row r="429" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" ht="16" customHeight="1">
+    <row r="430" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" ht="16" customHeight="1">
+    <row r="431" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" ht="16" customHeight="1">
+    <row r="432" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" ht="16" customHeight="1">
+    <row r="433" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" ht="16" customHeight="1">
+    <row r="434" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" ht="16" customHeight="1">
+    <row r="435" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" ht="16" customHeight="1">
+    <row r="436" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" ht="16" customHeight="1">
+    <row r="437" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" ht="16" customHeight="1">
+    <row r="438" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" ht="16" customHeight="1">
+    <row r="439" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" ht="16" customHeight="1">
+    <row r="440" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" ht="16" customHeight="1">
+    <row r="441" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" ht="16" customHeight="1">
+    <row r="442" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" ht="16" customHeight="1">
+    <row r="443" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" ht="16" customHeight="1">
+    <row r="444" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" ht="16" customHeight="1">
+    <row r="445" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" ht="16" customHeight="1">
+    <row r="446" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" ht="16" customHeight="1">
+    <row r="447" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" ht="16" customHeight="1">
+    <row r="448" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" ht="16" customHeight="1">
+    <row r="449" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" ht="16" customHeight="1">
+    <row r="450" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" ht="16" customHeight="1">
+    <row r="451" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" ht="16" customHeight="1">
+    <row r="452" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" ht="16" customHeight="1">
+    <row r="453" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" ht="16" customHeight="1">
+    <row r="454" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" ht="16" customHeight="1">
+    <row r="455" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" ht="16" customHeight="1">
+    <row r="456" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" ht="16" customHeight="1">
+    <row r="457" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" ht="16" customHeight="1">
+    <row r="458" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" ht="16" customHeight="1">
+    <row r="459" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" ht="16" customHeight="1">
+    <row r="460" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" ht="16" customHeight="1">
+    <row r="461" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" ht="16" customHeight="1">
+    <row r="462" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" ht="16" customHeight="1">
+    <row r="463" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" ht="16" customHeight="1">
+    <row r="464" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" ht="16" customHeight="1">
+    <row r="465" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" ht="16" customHeight="1">
+    <row r="466" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" ht="16" customHeight="1">
+    <row r="467" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" ht="16" customHeight="1">
+    <row r="468" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" ht="16" customHeight="1">
+    <row r="469" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" ht="16" customHeight="1">
+    <row r="470" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" ht="16" customHeight="1">
+    <row r="471" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" ht="16" customHeight="1">
+    <row r="472" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" ht="16" customHeight="1">
+    <row r="473" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" ht="16" customHeight="1">
+    <row r="474" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" ht="16" customHeight="1">
+    <row r="475" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" ht="16" customHeight="1">
+    <row r="476" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" ht="16" customHeight="1">
+    <row r="477" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" ht="16" customHeight="1">
+    <row r="478" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" ht="16" customHeight="1">
+    <row r="479" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" ht="16" customHeight="1">
+    <row r="480" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" ht="16" customHeight="1">
+    <row r="481" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" ht="16" customHeight="1">
+    <row r="482" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" ht="16" customHeight="1">
+    <row r="483" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" ht="16" customHeight="1">
+    <row r="484" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" ht="16" customHeight="1">
+    <row r="485" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" ht="16" customHeight="1">
+    <row r="486" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" ht="16" customHeight="1">
+    <row r="487" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" ht="16" customHeight="1">
+    <row r="488" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" ht="16" customHeight="1">
+    <row r="489" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" ht="16" customHeight="1">
+    <row r="490" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" ht="16" customHeight="1">
+    <row r="491" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" ht="16" customHeight="1">
+    <row r="492" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" ht="16" customHeight="1">
+    <row r="493" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" ht="16" customHeight="1">
+    <row r="494" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" ht="16" customHeight="1">
+    <row r="495" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" ht="16" customHeight="1">
+    <row r="496" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" ht="16" customHeight="1">
+    <row r="497" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" ht="16" customHeight="1">
+    <row r="498" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" ht="16" customHeight="1">
+    <row r="499" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" ht="16" customHeight="1">
+    <row r="500" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" ht="16" customHeight="1">
+    <row r="501" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
     </row>
-    <row r="502" ht="16" customHeight="1">
+    <row r="502" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
     </row>
-    <row r="503" ht="16" customHeight="1">
+    <row r="503" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
     </row>
-    <row r="504" ht="16" customHeight="1">
+    <row r="504" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
     </row>
-    <row r="505" ht="16" customHeight="1">
+    <row r="505" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
     </row>
-    <row r="506" ht="16" customHeight="1">
+    <row r="506" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
     </row>
-    <row r="507" ht="16" customHeight="1">
+    <row r="507" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
     </row>
-    <row r="508" ht="16" customHeight="1">
+    <row r="508" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
     </row>
-    <row r="509" ht="16" customHeight="1">
+    <row r="509" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
     </row>
-    <row r="510" ht="16" customHeight="1">
+    <row r="510" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
     </row>
-    <row r="511" ht="16" customHeight="1">
+    <row r="511" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
     </row>
-    <row r="512" ht="16" customHeight="1">
+    <row r="512" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" ht="16" customHeight="1">
+    <row r="513" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" ht="16" customHeight="1">
+    <row r="514" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" ht="16" customHeight="1">
+    <row r="515" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" ht="16" customHeight="1">
+    <row r="516" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" ht="16" customHeight="1">
+    <row r="517" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" ht="16" customHeight="1">
+    <row r="518" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" ht="16" customHeight="1">
+    <row r="519" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" ht="16" customHeight="1">
+    <row r="520" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" ht="16" customHeight="1">
+    <row r="521" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" ht="16" customHeight="1">
+    <row r="522" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" ht="16" customHeight="1">
+    <row r="523" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" ht="16" customHeight="1">
+    <row r="524" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" ht="16" customHeight="1">
+    <row r="525" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
     </row>
-    <row r="526" ht="16" customHeight="1">
+    <row r="526" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" ht="16" customHeight="1">
+    <row r="527" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" ht="16" customHeight="1">
+    <row r="528" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" ht="16" customHeight="1">
+    <row r="529" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" ht="16" customHeight="1">
+    <row r="530" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" ht="16" customHeight="1">
+    <row r="531" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" ht="16" customHeight="1">
+    <row r="532" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" ht="16" customHeight="1">
+    <row r="533" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" ht="16" customHeight="1">
+    <row r="534" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" ht="16" customHeight="1">
+    <row r="535" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" ht="16" customHeight="1">
+    <row r="536" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" ht="16" customHeight="1">
+    <row r="537" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" ht="16" customHeight="1">
+    <row r="538" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" ht="16" customHeight="1">
+    <row r="539" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
     </row>
-    <row r="540" ht="16" customHeight="1">
+    <row r="540" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" ht="16" customHeight="1">
+    <row r="541" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" ht="16" customHeight="1">
+    <row r="542" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" ht="16" customHeight="1">
+    <row r="543" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" ht="16" customHeight="1">
+    <row r="544" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
     </row>
-    <row r="545" ht="16" customHeight="1">
+    <row r="545" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
     </row>
-    <row r="546" ht="16" customHeight="1">
+    <row r="546" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
     </row>
-    <row r="547" ht="16" customHeight="1">
+    <row r="547" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
     </row>
-    <row r="548" ht="16" customHeight="1">
+    <row r="548" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
     </row>
-    <row r="549" ht="16" customHeight="1">
+    <row r="549" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
     </row>
-    <row r="550" ht="16" customHeight="1">
+    <row r="550" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
     </row>
-    <row r="551" ht="16" customHeight="1">
+    <row r="551" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
     </row>
-    <row r="552" ht="16" customHeight="1">
+    <row r="552" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
     </row>
-    <row r="553" ht="16" customHeight="1">
+    <row r="553" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
     </row>
-    <row r="554" ht="16" customHeight="1">
+    <row r="554" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
     </row>
-    <row r="555" ht="16" customHeight="1">
+    <row r="555" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
     </row>
-    <row r="556" ht="16" customHeight="1">
+    <row r="556" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
     </row>
-    <row r="557" ht="16" customHeight="1">
+    <row r="557" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
     </row>
-    <row r="558" ht="16" customHeight="1">
+    <row r="558" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
     </row>
-    <row r="559" ht="16" customHeight="1">
+    <row r="559" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
     </row>
-    <row r="560" ht="16" customHeight="1">
+    <row r="560" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
     </row>
-    <row r="561" ht="16" customHeight="1">
+    <row r="561" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
     </row>
-    <row r="562" ht="16" customHeight="1">
+    <row r="562" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
     </row>
-    <row r="563" ht="16" customHeight="1">
+    <row r="563" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
     </row>
-    <row r="564" ht="16" customHeight="1">
+    <row r="564" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
     </row>
-    <row r="565" ht="16" customHeight="1">
+    <row r="565" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -6004,8 +6117,9 @@
       <c r="E565" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/1-100/完成时间表mac.xlsx
+++ b/1-100/完成时间表mac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6443E872-799C-41D4-8288-1DDE70449BD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2D51-597F-4521-A509-FC828D84CB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,6 +75,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -177,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1339,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV565"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B125" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2767,7 +2774,7 @@
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124" s="12">
         <v>123</v>
       </c>
       <c r="B124" s="3"/>
@@ -2788,9 +2795,16 @@
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="B126" s="3">
+        <f>14*60 + 33</f>
+        <v>873</v>
+      </c>
+      <c r="C126" s="3">
+        <v>73</v>
+      </c>
+      <c r="D126" s="3">
+        <v>77</v>
+      </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2817,7 @@
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128" s="12">
         <v>127</v>
       </c>
       <c r="B128" s="3"/>
@@ -2815,27 +2829,48 @@
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="B129" s="3">
+        <f>17* 60 + 44</f>
+        <v>1064</v>
+      </c>
+      <c r="C129" s="3">
+        <v>88</v>
+      </c>
+      <c r="D129" s="3">
+        <v>12</v>
+      </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
+      <c r="B130" s="3">
+        <f>34*60 + 50</f>
+        <v>2090</v>
+      </c>
+      <c r="C130" s="3">
+        <v>90</v>
+      </c>
+      <c r="D130" s="3">
+        <v>89</v>
+      </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
+      <c r="B131" s="3">
+        <f>37 * 60 + 30</f>
+        <v>2250</v>
+      </c>
+      <c r="C131" s="3">
+        <v>100</v>
+      </c>
+      <c r="D131" s="3">
+        <v>90</v>
+      </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,36 +2895,54 @@
       <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
+      <c r="B134" s="3">
+        <f>33* 60 + 26</f>
+        <v>2006</v>
+      </c>
+      <c r="C134" s="3">
+        <v>44</v>
+      </c>
+      <c r="D134" s="3">
+        <v>5</v>
+      </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
+      <c r="B136" s="3">
+        <f>48*60 + 16</f>
+        <v>2896</v>
+      </c>
+      <c r="C136" s="3">
+        <v>8</v>
+      </c>
+      <c r="D136" s="3">
+        <v>94</v>
+      </c>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="3">
+        <f>60*12 + 6</f>
+        <v>726</v>
+      </c>
+      <c r="C137" s="3">
+        <v>17</v>
+      </c>
+      <c r="D137" s="3">
+        <v>44</v>
+      </c>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2905,9 +2958,16 @@
       <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="B139" s="3">
+        <f>17 * 60 + 22</f>
+        <v>1042</v>
+      </c>
+      <c r="C139" s="3">
+        <v>100</v>
+      </c>
+      <c r="D139" s="3">
+        <v>33</v>
+      </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/1-100/完成时间表mac.xlsx
+++ b/1-100/完成时间表mac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2D51-597F-4521-A509-FC828D84CB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11D8DA-31BE-43CC-913B-F0D347DAFD0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -184,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1344,4837 +1345,5946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV565"/>
+  <dimension ref="A1:IW565"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B125" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B130" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="257" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="4">
+        <v>43</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="4">
+        <v>44</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="4">
+        <v>45</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="4">
+        <v>46</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="4">
+        <v>47</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="4">
+        <v>48</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="4">
+        <v>49</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="4">
+        <v>50</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="4">
+        <v>51</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="4">
+        <v>52</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="4">
+        <v>53</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4">
+        <v>55</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="4">
+        <v>56</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="4">
+        <v>57</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
         <v>300</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>91.7</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>96.8</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
         <f>14*60</f>
         <v>840</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>92.8</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>91.7</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>77.099999999999994</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>15.9</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4">
         <v>340</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>97</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>99.2</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4">
         <v>180</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>92.1</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>71</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4">
         <v>2100</v>
       </c>
-      <c r="C64" s="4">
+      <c r="D64" s="4">
         <v>85</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>95</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="C65" s="7">
         <v>1058</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>21</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>63</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4">
         <f>55*60+24</f>
         <v>3324</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D66" s="4">
         <v>80</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>100</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="4">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4">
         <v>247</v>
       </c>
-      <c r="C67" s="4">
+      <c r="D67" s="4">
         <v>94</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>86</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="4">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4">
         <v>640</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>74</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>96</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="4">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4">
         <v>4200</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>80</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>100</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="4">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4">
         <f>11*60+32</f>
         <v>692</v>
       </c>
-      <c r="C70" s="4">
+      <c r="D70" s="4">
         <v>95</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>99</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="4">
+        <v>70</v>
+      </c>
+      <c r="C71" s="7">
         <f>60*56</f>
         <v>3360</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>90</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>100</v>
       </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="4">
+        <v>71</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="4">
+        <v>72</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4">
+        <v>73</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="4">
+        <v>74</v>
+      </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="4">
+        <v>75</v>
+      </c>
+      <c r="C76" s="9">
         <v>240</v>
       </c>
-      <c r="C76" s="9">
+      <c r="D76" s="9">
         <v>98</v>
       </c>
-      <c r="D76" s="9">
+      <c r="E76" s="9">
         <v>75</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="4">
+        <v>76</v>
+      </c>
+      <c r="C77" s="10">
         <v>3600</v>
       </c>
-      <c r="C77" s="9">
+      <c r="D77" s="9">
         <v>31</v>
       </c>
-      <c r="D77" s="9">
+      <c r="E77" s="9">
         <v>18</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="4">
+        <v>77</v>
+      </c>
+      <c r="C78" s="10">
         <v>7200</v>
       </c>
-      <c r="C78" s="9">
+      <c r="D78" s="9">
         <v>91</v>
       </c>
-      <c r="D78" s="9">
+      <c r="E78" s="9">
         <v>5</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="4">
+        <v>78</v>
+      </c>
+      <c r="C79" s="9">
         <v>500</v>
       </c>
-      <c r="C79" s="9">
+      <c r="D79" s="9">
         <v>96</v>
       </c>
-      <c r="D79" s="9">
+      <c r="E79" s="9">
         <v>25</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="4">
+        <v>79</v>
+      </c>
+      <c r="C80" s="10">
         <v>3500</v>
       </c>
-      <c r="C80" s="9">
+      <c r="D80" s="9">
         <v>12</v>
       </c>
-      <c r="D80" s="9">
+      <c r="E80" s="9">
         <v>22</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="4">
+        <v>80</v>
+      </c>
+      <c r="C81" s="9">
         <v>548</v>
       </c>
-      <c r="C81" s="9">
+      <c r="D81" s="9">
         <v>92</v>
       </c>
-      <c r="D81" s="9">
+      <c r="E81" s="9">
         <v>86</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="4">
+        <v>81</v>
+      </c>
+      <c r="C82" s="10">
         <v>3600</v>
       </c>
-      <c r="C82" s="9">
+      <c r="D82" s="9">
         <v>90</v>
       </c>
-      <c r="D82" s="9">
+      <c r="E82" s="9">
         <v>5</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="4">
+        <v>82</v>
+      </c>
+      <c r="C83" s="9">
         <v>735</v>
       </c>
-      <c r="C83" s="9">
+      <c r="D83" s="9">
         <v>100</v>
       </c>
-      <c r="D83" s="9">
+      <c r="E83" s="9">
         <v>65</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="4">
+        <v>83</v>
+      </c>
+      <c r="C84" s="9">
         <v>180</v>
       </c>
-      <c r="C84" s="9">
+      <c r="D84" s="9">
         <v>95</v>
       </c>
-      <c r="D84" s="9">
+      <c r="E84" s="9">
         <v>51</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="4">
+        <v>84</v>
+      </c>
+      <c r="C85" s="10">
         <f>47*60+29</f>
         <v>2849</v>
       </c>
-      <c r="C85" s="9">
+      <c r="D85" s="9">
         <v>98</v>
       </c>
-      <c r="D85" s="9">
+      <c r="E85" s="9">
         <v>19</v>
       </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="4">
+        <v>85</v>
+      </c>
+      <c r="C86" s="10">
         <f>60*90</f>
         <v>5400</v>
       </c>
-      <c r="C86" s="9">
+      <c r="D86" s="9">
         <v>10</v>
       </c>
-      <c r="D86" s="9">
+      <c r="E86" s="9">
         <v>20</v>
       </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="4">
+        <v>86</v>
+      </c>
+      <c r="C87" s="9">
         <f>5*60+52</f>
         <v>352</v>
       </c>
-      <c r="C87" s="9">
+      <c r="D87" s="9">
         <v>98</v>
       </c>
-      <c r="D87" s="9">
+      <c r="E87" s="9">
         <v>10</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="4">
+        <v>87</v>
+      </c>
+      <c r="C88" s="9">
         <v>7200</v>
       </c>
-      <c r="C88" s="9">
+      <c r="D88" s="9">
         <v>96</v>
       </c>
-      <c r="D88" s="9">
+      <c r="E88" s="9">
         <v>42</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="4">
+        <v>88</v>
+      </c>
+      <c r="C89" s="9">
         <f>60*33+47</f>
         <v>2027</v>
       </c>
-      <c r="C89" s="9">
+      <c r="D89" s="9">
         <v>97</v>
       </c>
-      <c r="D89" s="9">
+      <c r="E89" s="9">
         <v>16</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="4">
+        <v>89</v>
+      </c>
+      <c r="C90" s="9">
         <f>24*60+13</f>
         <v>1453</v>
       </c>
-      <c r="C90" s="9">
+      <c r="D90" s="9">
         <v>68</v>
       </c>
-      <c r="D90" s="9">
+      <c r="E90" s="9">
         <v>6</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="4">
+        <v>90</v>
+      </c>
+      <c r="C91" s="9">
         <f>10*60</f>
         <v>600</v>
       </c>
-      <c r="C91" s="9">
+      <c r="D91" s="9">
         <v>100</v>
       </c>
-      <c r="D91" s="9">
+      <c r="E91" s="9">
         <v>68</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="4">
+        <v>91</v>
+      </c>
+      <c r="C92" s="9">
         <f>25*60+47</f>
         <v>1547</v>
       </c>
-      <c r="C92" s="9">
+      <c r="D92" s="9">
         <v>97</v>
       </c>
-      <c r="D92" s="9">
+      <c r="E92" s="9">
         <v>80</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="4">
+        <v>92</v>
+      </c>
+      <c r="C93" s="9">
         <f>24*60+45</f>
         <v>1485</v>
       </c>
-      <c r="C93" s="9">
+      <c r="D93" s="9">
         <v>82</v>
       </c>
-      <c r="D93" s="9">
+      <c r="E93" s="9">
         <v>7</v>
       </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="4">
+        <v>93</v>
+      </c>
+      <c r="C94" s="9">
         <f>60*26</f>
         <v>1560</v>
       </c>
-      <c r="C94" s="9">
+      <c r="D94" s="9">
         <v>100</v>
       </c>
-      <c r="D94" s="9">
+      <c r="E94" s="9">
         <v>6</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="4">
+        <v>94</v>
+      </c>
+      <c r="C95" s="9">
         <v>540</v>
       </c>
-      <c r="C95" s="9">
+      <c r="D95" s="9">
         <v>91</v>
       </c>
-      <c r="D95" s="9">
+      <c r="E95" s="9">
         <v>25</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="4">
+        <v>95</v>
+      </c>
+      <c r="C96" s="9">
         <f>41*60+30</f>
         <v>2490</v>
       </c>
-      <c r="C96" s="9">
+      <c r="D96" s="9">
         <v>99</v>
       </c>
-      <c r="D96" s="9">
+      <c r="E96" s="9">
         <v>79</v>
       </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="4">
+        <v>96</v>
+      </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="4">
+        <v>97</v>
+      </c>
+      <c r="C98" s="9">
         <f>36*60+47</f>
         <v>2207</v>
       </c>
-      <c r="C98" s="9">
+      <c r="D98" s="9">
         <v>100</v>
       </c>
-      <c r="D98" s="9">
+      <c r="E98" s="9">
         <v>36</v>
       </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="4">
+        <v>98</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="4">
+        <v>101</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="4">
+        <v>102</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="4">
+        <v>103</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="4">
+        <v>104</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="4">
+        <v>105</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="4">
+        <v>106</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="4">
+        <v>107</v>
+      </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="4">
+        <v>108</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="4">
+        <v>109</v>
+      </c>
+      <c r="C110" s="9">
         <f>13*60+14</f>
         <v>794</v>
       </c>
-      <c r="C110" s="9">
+      <c r="D110" s="9">
         <v>91</v>
       </c>
-      <c r="D110" s="9">
+      <c r="E110" s="9">
         <v>47</v>
       </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="4">
+        <v>110</v>
+      </c>
+      <c r="C111" s="9">
         <v>336</v>
       </c>
-      <c r="C111" s="9">
+      <c r="D111" s="9">
         <v>94</v>
       </c>
-      <c r="D111" s="9">
+      <c r="E111" s="9">
         <v>34</v>
       </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="4">
+        <v>111</v>
+      </c>
+      <c r="C112" s="9">
         <v>760</v>
       </c>
-      <c r="C112" s="9">
+      <c r="D112" s="9">
         <v>96</v>
       </c>
-      <c r="D112" s="9">
+      <c r="E112" s="9">
         <v>79</v>
       </c>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="4">
+        <v>112</v>
+      </c>
+      <c r="C113" s="9">
         <v>360</v>
       </c>
-      <c r="C113" s="9">
+      <c r="D113" s="9">
         <v>98</v>
       </c>
-      <c r="D113" s="9">
+      <c r="E113" s="9">
         <v>57</v>
       </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
+        <v>113</v>
+      </c>
+      <c r="C114" s="3">
         <f>11*60 + 37</f>
         <v>697</v>
       </c>
-      <c r="C114" s="3">
+      <c r="D114" s="3">
         <v>96</v>
       </c>
-      <c r="D114" s="3">
+      <c r="E114" s="3">
         <v>58</v>
       </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3">
         <v>1222</v>
       </c>
-      <c r="C115" s="3">
+      <c r="D115" s="3">
         <v>79</v>
       </c>
-      <c r="D115" s="3">
+      <c r="E115" s="3">
         <v>13</v>
       </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="4">
+        <v>115</v>
+      </c>
+      <c r="C116" s="1">
+        <f>60 * 34 + 24</f>
+        <v>2064</v>
+      </c>
+      <c r="D116" s="13">
+        <v>28</v>
+      </c>
+      <c r="E116" s="13">
+        <v>5</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
+        <v>116</v>
+      </c>
+      <c r="C117" s="3">
         <f>7*60 +22</f>
         <v>442</v>
       </c>
-      <c r="C117" s="3">
+      <c r="D117" s="3">
         <v>95</v>
       </c>
-      <c r="D117" s="3">
+      <c r="E117" s="3">
         <v>71</v>
       </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
+        <v>117</v>
+      </c>
+      <c r="C118" s="3">
         <v>314</v>
       </c>
-      <c r="C118" s="3">
+      <c r="D118" s="3">
         <v>98</v>
       </c>
-      <c r="D118" s="3">
+      <c r="E118" s="3">
         <v>85</v>
       </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
+        <v>118</v>
+      </c>
+      <c r="C119" s="3">
         <f>11 * 60 + 14</f>
         <v>674</v>
       </c>
-      <c r="C119" s="3">
+      <c r="D119" s="3">
         <v>98</v>
       </c>
-      <c r="D119" s="3">
+      <c r="E119" s="3">
         <v>83</v>
       </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
+        <v>119</v>
+      </c>
+      <c r="C120" s="3">
         <v>181</v>
       </c>
-      <c r="C120" s="3">
+      <c r="D120" s="3">
         <v>93</v>
       </c>
-      <c r="D120" s="3">
+      <c r="E120" s="3">
         <v>44</v>
       </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
+        <v>120</v>
+      </c>
+      <c r="C121" s="3">
         <v>360</v>
       </c>
-      <c r="C121" s="3">
+      <c r="D121" s="3">
         <v>87</v>
       </c>
-      <c r="D121" s="3">
+      <c r="E121" s="3">
         <v>35</v>
       </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
+        <v>121</v>
+      </c>
+      <c r="C122" s="3">
         <v>210</v>
       </c>
-      <c r="C122" s="3">
+      <c r="D122" s="3">
         <v>86</v>
       </c>
-      <c r="D122" s="3">
+      <c r="E122" s="3">
         <v>98</v>
       </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3">
         <v>378</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D123" s="3">
         <v>100</v>
       </c>
-      <c r="D123" s="3">
+      <c r="E123" s="3">
         <v>72</v>
       </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>123</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="12">
+        <v>123</v>
+      </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="3"/>
+      <c r="B125" s="4">
+        <v>124</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
+        <v>125</v>
+      </c>
+      <c r="C126" s="3">
         <f>14*60 + 33</f>
         <v>873</v>
       </c>
-      <c r="C126" s="3">
+      <c r="D126" s="3">
         <v>73</v>
       </c>
-      <c r="D126" s="3">
+      <c r="E126" s="3">
         <v>77</v>
       </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="4">
+        <v>126</v>
+      </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>127</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="4">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D128" s="3">
+        <v>67</v>
+      </c>
+      <c r="E128" s="3">
+        <v>50</v>
+      </c>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
+        <v>128</v>
+      </c>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4">
+        <v>129</v>
+      </c>
+      <c r="C130" s="3">
         <f>17* 60 + 44</f>
         <v>1064</v>
       </c>
-      <c r="C129" s="3">
+      <c r="D130" s="3">
         <v>88</v>
       </c>
-      <c r="D129" s="3">
+      <c r="E130" s="3">
         <v>12</v>
       </c>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4">
+        <v>130</v>
+      </c>
+      <c r="C131" s="3">
         <f>34*60 + 50</f>
         <v>2090</v>
       </c>
-      <c r="C130" s="3">
+      <c r="D131" s="3">
         <v>90</v>
       </c>
-      <c r="D130" s="3">
+      <c r="E131" s="3">
         <v>89</v>
       </c>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4">
+        <v>131</v>
+      </c>
+      <c r="C132" s="3">
         <f>37 * 60 + 30</f>
         <v>2250</v>
       </c>
-      <c r="C131" s="3">
+      <c r="D132" s="3">
         <v>100</v>
       </c>
-      <c r="D131" s="3">
+      <c r="E132" s="3">
         <v>90</v>
       </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="12">
+        <v>132</v>
+      </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
+        <v>133</v>
+      </c>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4">
+        <v>134</v>
+      </c>
+      <c r="C135" s="3">
         <f>33* 60 + 26</f>
         <v>2006</v>
       </c>
-      <c r="C134" s="3">
+      <c r="D135" s="3">
         <v>44</v>
       </c>
-      <c r="D134" s="3">
+      <c r="E135" s="3">
         <v>5</v>
       </c>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <v>134</v>
-      </c>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
+        <v>135</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3">
         <f>48*60 + 16</f>
         <v>2896</v>
       </c>
-      <c r="C136" s="3">
+      <c r="D137" s="3">
         <v>8</v>
       </c>
-      <c r="D136" s="3">
+      <c r="E137" s="3">
         <v>94</v>
       </c>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <v>136</v>
-      </c>
-      <c r="B137" s="3">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4">
+        <v>137</v>
+      </c>
+      <c r="C138" s="3">
         <f>60*12 + 6</f>
         <v>726</v>
       </c>
-      <c r="C137" s="3">
+      <c r="D138" s="3">
         <v>17</v>
       </c>
-      <c r="D137" s="3">
+      <c r="E138" s="3">
         <v>44</v>
       </c>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>137</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
+        <v>138</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>139</v>
+      </c>
+      <c r="C140" s="3">
         <f>17 * 60 + 22</f>
         <v>1042</v>
       </c>
-      <c r="C139" s="3">
+      <c r="D140" s="3">
         <v>100</v>
       </c>
-      <c r="D139" s="3">
+      <c r="E140" s="3">
         <v>33</v>
       </c>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>139</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="4">
+        <v>140</v>
+      </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="4">
+        <v>141</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D142" s="3">
+        <v>91</v>
+      </c>
+      <c r="E142" s="3">
+        <v>50</v>
+      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="4">
+        <v>142</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D143" s="3">
+        <v>75</v>
+      </c>
+      <c r="E143" s="3">
+        <v>35</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="4">
+        <v>143</v>
+      </c>
+      <c r="C144" s="3">
+        <v>390</v>
+      </c>
+      <c r="D144" s="3">
+        <v>97</v>
+      </c>
+      <c r="E144" s="3">
+        <v>75</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="4">
+        <v>144</v>
+      </c>
+      <c r="C145" s="3">
+        <v>306</v>
+      </c>
+      <c r="D145" s="3">
+        <v>96</v>
+      </c>
+      <c r="E145" s="3">
+        <v>51</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="4">
+        <v>145</v>
+      </c>
+      <c r="C146" s="3">
+        <v>240</v>
+      </c>
+      <c r="D146" s="3">
+        <v>77</v>
+      </c>
+      <c r="E146" s="3">
+        <v>48</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="3"/>
+      <c r="B147" s="4">
+        <v>146</v>
+      </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="4">
+        <v>147</v>
+      </c>
+      <c r="C148" s="3">
+        <f xml:space="preserve"> 60 * 40</f>
+        <v>2400</v>
+      </c>
+      <c r="D148" s="3">
+        <v>20</v>
+      </c>
+      <c r="E148" s="3">
+        <v>58</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="3"/>
+      <c r="B149" s="4">
+        <v>148</v>
+      </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="3"/>
+      <c r="B150" s="4">
+        <v>149</v>
+      </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="3"/>
+      <c r="B151" s="4">
+        <v>150</v>
+      </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="4">
+        <v>151</v>
+      </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="4">
+        <v>152</v>
+      </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="3"/>
+      <c r="B154" s="4">
+        <v>153</v>
+      </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="3"/>
+      <c r="B155" s="4">
+        <v>154</v>
+      </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="3"/>
+      <c r="B156" s="4">
+        <v>155</v>
+      </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="3"/>
+      <c r="B157" s="4">
+        <v>156</v>
+      </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="3"/>
+      <c r="B158" s="4">
+        <v>157</v>
+      </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="3"/>
+      <c r="B159" s="4">
+        <v>158</v>
+      </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="3"/>
+      <c r="B160" s="4">
+        <v>159</v>
+      </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="3"/>
+      <c r="B161" s="4">
+        <v>160</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="3"/>
+      <c r="B162" s="4">
+        <v>161</v>
+      </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="3"/>
+      <c r="B163" s="4">
+        <v>162</v>
+      </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="3"/>
+      <c r="B164" s="4">
+        <v>163</v>
+      </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="4">
+        <v>164</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="3"/>
+      <c r="B166" s="4">
+        <v>165</v>
+      </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="3"/>
+      <c r="B167" s="4">
+        <v>166</v>
+      </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="3"/>
+      <c r="B168" s="4">
+        <v>167</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="3"/>
+      <c r="B169" s="4">
+        <v>168</v>
+      </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="3"/>
+      <c r="B170" s="4">
+        <v>169</v>
+      </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="3"/>
+      <c r="B171" s="4">
+        <v>170</v>
+      </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="4">
+        <v>171</v>
+      </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="3"/>
+      <c r="B173" s="4">
+        <v>172</v>
+      </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="3"/>
+      <c r="B174" s="4">
+        <v>173</v>
+      </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="4">
+        <v>174</v>
+      </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="3"/>
+      <c r="B176" s="4">
+        <v>175</v>
+      </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="3"/>
+      <c r="B177" s="4">
+        <v>176</v>
+      </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="3"/>
+      <c r="B178" s="4">
+        <v>177</v>
+      </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="3"/>
+      <c r="B179" s="4">
+        <v>178</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="3"/>
+      <c r="B180" s="4">
+        <v>179</v>
+      </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="3"/>
+      <c r="B181" s="4">
+        <v>180</v>
+      </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="3"/>
+      <c r="B182" s="4">
+        <v>181</v>
+      </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="3"/>
+      <c r="B183" s="4">
+        <v>182</v>
+      </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="3"/>
+      <c r="B184" s="4">
+        <v>183</v>
+      </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="4">
+        <v>184</v>
+      </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="3"/>
+      <c r="B186" s="4">
+        <v>185</v>
+      </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="3"/>
+      <c r="B187" s="4">
+        <v>186</v>
+      </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="3"/>
+      <c r="B188" s="4">
+        <v>187</v>
+      </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B189" s="4">
+        <v>188</v>
+      </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="3"/>
+      <c r="B190" s="4">
+        <v>189</v>
+      </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="3"/>
+      <c r="B191" s="4">
+        <v>190</v>
+      </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="3"/>
+      <c r="B192" s="4">
+        <v>191</v>
+      </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="3"/>
+      <c r="B193" s="4">
+        <v>192</v>
+      </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194" s="3"/>
+      <c r="B194" s="4">
+        <v>193</v>
+      </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195" s="3"/>
+      <c r="B195" s="4">
+        <v>194</v>
+      </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196" s="3"/>
+      <c r="B196" s="4">
+        <v>195</v>
+      </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197" s="3"/>
+      <c r="B197" s="4">
+        <v>196</v>
+      </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198" s="3"/>
+      <c r="B198" s="4">
+        <v>197</v>
+      </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199" s="3"/>
+      <c r="B199" s="4">
+        <v>198</v>
+      </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200" s="3"/>
+      <c r="B200" s="4">
+        <v>199</v>
+      </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201" s="3"/>
+      <c r="B201" s="4">
+        <v>200</v>
+      </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202" s="3"/>
+      <c r="B202" s="4">
+        <v>201</v>
+      </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203" s="3"/>
+      <c r="B203" s="4">
+        <v>202</v>
+      </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204" s="3"/>
+      <c r="B204" s="4">
+        <v>203</v>
+      </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="3"/>
+      <c r="B205" s="4">
+        <v>204</v>
+      </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206" s="3"/>
+      <c r="B206" s="4">
+        <v>205</v>
+      </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207" s="4">
+        <v>206</v>
+      </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208" s="3"/>
+      <c r="B208" s="4">
+        <v>207</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209" s="3"/>
+      <c r="B209" s="4">
+        <v>208</v>
+      </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210" s="3"/>
+      <c r="B210" s="4">
+        <v>209</v>
+      </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="4">
+        <v>210</v>
+      </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212" s="4">
+        <v>211</v>
+      </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="3"/>
+      <c r="B213" s="4">
+        <v>212</v>
+      </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214" s="3"/>
+      <c r="B214" s="4">
+        <v>213</v>
+      </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="3"/>
+      <c r="B215" s="4">
+        <v>214</v>
+      </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216" s="3"/>
+      <c r="B216" s="4">
+        <v>215</v>
+      </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217" s="4">
+        <v>216</v>
+      </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="3"/>
+      <c r="B218" s="4">
+        <v>217</v>
+      </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219" s="3"/>
+      <c r="B219" s="4">
+        <v>218</v>
+      </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
-    </row>
-    <row r="220" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220" s="3"/>
+      <c r="B220" s="4">
+        <v>219</v>
+      </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221" s="4">
+        <v>220</v>
+      </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222" s="3"/>
+      <c r="B222" s="4">
+        <v>221</v>
+      </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
-    </row>
-    <row r="223" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="3"/>
+      <c r="B223" s="4">
+        <v>222</v>
+      </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="3"/>
+      <c r="B224" s="4">
+        <v>223</v>
+      </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
-    </row>
-    <row r="225" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="3"/>
+      <c r="B225" s="4">
+        <v>224</v>
+      </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
-    </row>
-    <row r="226" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="3"/>
+      <c r="B226" s="4">
+        <v>225</v>
+      </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
-    </row>
-    <row r="227" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227" s="3"/>
+      <c r="B227" s="4">
+        <v>226</v>
+      </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
-    </row>
-    <row r="228" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="4">
+        <v>227</v>
+      </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
-    </row>
-    <row r="229" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>228</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229" s="4">
+        <v>228</v>
+      </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
-    </row>
-    <row r="230" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230" s="3"/>
+      <c r="B230" s="4">
+        <v>229</v>
+      </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
-    </row>
-    <row r="231" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231" s="4">
+        <v>230</v>
+      </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
-    </row>
-    <row r="232" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="3"/>
+      <c r="B232" s="4">
+        <v>231</v>
+      </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
-    </row>
-    <row r="233" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233" s="4">
+        <v>232</v>
+      </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
-    </row>
-    <row r="234" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234" s="4">
+        <v>233</v>
+      </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
-    </row>
-    <row r="235" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235" s="4">
+        <v>234</v>
+      </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
-    </row>
-    <row r="236" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236" s="3"/>
+      <c r="B236" s="4">
+        <v>235</v>
+      </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
-    </row>
-    <row r="237" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="4">
+        <v>236</v>
+      </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
-    </row>
-    <row r="238" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238" s="3"/>
+      <c r="B238" s="4">
+        <v>237</v>
+      </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
-    </row>
-    <row r="239" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="4">
+        <v>238</v>
+      </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
-    </row>
-    <row r="240" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240" s="3"/>
+      <c r="B240" s="4">
+        <v>239</v>
+      </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
-    </row>
-    <row r="241" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241" s="3"/>
+      <c r="B241" s="4">
+        <v>240</v>
+      </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
-    </row>
-    <row r="242" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242" s="3"/>
+      <c r="B242" s="4">
+        <v>241</v>
+      </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
-    </row>
-    <row r="243" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243" s="3"/>
+      <c r="B243" s="4">
+        <v>242</v>
+      </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
-    </row>
-    <row r="244" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244" s="3"/>
+      <c r="B244" s="4">
+        <v>243</v>
+      </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-    </row>
-    <row r="245" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245" s="3"/>
+      <c r="B245" s="4">
+        <v>244</v>
+      </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
-    </row>
-    <row r="246" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246" s="3"/>
+      <c r="B246" s="4">
+        <v>245</v>
+      </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
-    </row>
-    <row r="247" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247" s="3"/>
+      <c r="B247" s="4">
+        <v>246</v>
+      </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
-    </row>
-    <row r="248" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248" s="3"/>
+      <c r="B248" s="4">
+        <v>247</v>
+      </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
-    </row>
-    <row r="249" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249" s="3"/>
+      <c r="B249" s="4">
+        <v>248</v>
+      </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
-    </row>
-    <row r="250" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B250" s="4">
+        <v>249</v>
+      </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
-    </row>
-    <row r="251" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251" s="3"/>
+      <c r="B251" s="4">
+        <v>250</v>
+      </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
-    </row>
-    <row r="252" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
-      <c r="B252" s="3"/>
+      <c r="B252" s="4"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
-    </row>
-    <row r="253" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
-      <c r="B253" s="3"/>
+      <c r="B253" s="4"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
-    </row>
-    <row r="254" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="3"/>
+      <c r="B254" s="4"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
-    </row>
-    <row r="255" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
-      <c r="B255" s="3"/>
+      <c r="B255" s="4"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
-    </row>
-    <row r="256" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
-      <c r="B256" s="3"/>
+      <c r="B256" s="4"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
-    </row>
-    <row r="257" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
-      <c r="B257" s="3"/>
+      <c r="B257" s="4"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
-      <c r="B258" s="3"/>
+      <c r="B258" s="4"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
-    </row>
-    <row r="259" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
-      <c r="B259" s="3"/>
+      <c r="B259" s="4"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
-    </row>
-    <row r="260" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
-      <c r="B260" s="3"/>
+      <c r="B260" s="4"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
-    </row>
-    <row r="261" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
-      <c r="B261" s="3"/>
+      <c r="B261" s="4"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
-    </row>
-    <row r="262" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
-      <c r="B262" s="3"/>
+      <c r="B262" s="4"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
-    </row>
-    <row r="263" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
-      <c r="B263" s="3"/>
+      <c r="B263" s="4"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
-    </row>
-    <row r="264" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
-      <c r="B264" s="3"/>
+      <c r="B264" s="4"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
-    </row>
-    <row r="265" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
-      <c r="B265" s="3"/>
+      <c r="B265" s="4"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
-    </row>
-    <row r="266" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
-      <c r="B266" s="3"/>
+      <c r="B266" s="4"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
-    </row>
-    <row r="267" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
-      <c r="B267" s="3"/>
+      <c r="B267" s="4"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
-    </row>
-    <row r="268" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
-      <c r="B268" s="3"/>
+      <c r="B268" s="4"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
-    </row>
-    <row r="269" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
-      <c r="B269" s="3"/>
+      <c r="B269" s="4"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
-    </row>
-    <row r="270" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
-      <c r="B270" s="3"/>
+      <c r="B270" s="4"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
-    </row>
-    <row r="271" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
-      <c r="B271" s="3"/>
+      <c r="B271" s="4"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
-    </row>
-    <row r="272" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
-      <c r="B272" s="3"/>
+      <c r="B272" s="4"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
-    </row>
-    <row r="273" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
-      <c r="B273" s="3"/>
+      <c r="B273" s="4"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
-    </row>
-    <row r="274" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
-      <c r="B274" s="3"/>
+      <c r="B274" s="4"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
-    </row>
-    <row r="275" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
-      <c r="B275" s="3"/>
+      <c r="B275" s="4"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
-    </row>
-    <row r="276" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
-      <c r="B276" s="3"/>
+      <c r="B276" s="4"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
-    </row>
-    <row r="277" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
-      <c r="B277" s="3"/>
+      <c r="B277" s="4"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
-    </row>
-    <row r="278" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
-      <c r="B278" s="3"/>
+      <c r="B278" s="4"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
-    </row>
-    <row r="279" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
-      <c r="B279" s="3"/>
+      <c r="B279" s="4"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
-    </row>
-    <row r="280" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
-      <c r="B280" s="3"/>
+      <c r="B280" s="4"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
-      <c r="B281" s="3"/>
+      <c r="B281" s="4"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
-    </row>
-    <row r="282" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
-      <c r="B282" s="3"/>
+      <c r="B282" s="4"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
-    </row>
-    <row r="283" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
-      <c r="B283" s="3"/>
+      <c r="B283" s="4"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
-    </row>
-    <row r="284" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
-      <c r="B284" s="3"/>
+      <c r="B284" s="4"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
-    </row>
-    <row r="285" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
-      <c r="B285" s="3"/>
+      <c r="B285" s="4"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
-    </row>
-    <row r="286" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
-      <c r="B286" s="3"/>
+      <c r="B286" s="4"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
-    </row>
-    <row r="287" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
-      <c r="B287" s="3"/>
+      <c r="B287" s="4"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
-    </row>
-    <row r="288" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
-      <c r="B288" s="3"/>
+      <c r="B288" s="4"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
-    </row>
-    <row r="289" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
-      <c r="B289" s="3"/>
+      <c r="B289" s="4"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
-    </row>
-    <row r="290" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
-      <c r="B290" s="3"/>
+      <c r="B290" s="4"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
-      <c r="B291" s="3"/>
+      <c r="B291" s="4"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
-      <c r="B292" s="3"/>
+      <c r="B292" s="4"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
-    </row>
-    <row r="293" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
-      <c r="B293" s="3"/>
+      <c r="B293" s="4"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
-    </row>
-    <row r="294" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
-      <c r="B294" s="3"/>
+      <c r="B294" s="4"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
-    </row>
-    <row r="295" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
-      <c r="B295" s="3"/>
+      <c r="B295" s="4"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
-    </row>
-    <row r="296" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
-      <c r="B296" s="3"/>
+      <c r="B296" s="4"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
-    </row>
-    <row r="297" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
-      <c r="B297" s="3"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
-    </row>
-    <row r="298" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
-      <c r="B298" s="3"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
-    </row>
-    <row r="299" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
-      <c r="B299" s="3"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
-    </row>
-    <row r="300" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
-      <c r="B300" s="3"/>
+      <c r="B300" s="4"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
-    </row>
-    <row r="301" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
-      <c r="B301" s="3"/>
+      <c r="B301" s="4"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
-    </row>
-    <row r="302" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
-      <c r="B302" s="3"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
-    </row>
-    <row r="303" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
-      <c r="B303" s="3"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
-      <c r="B304" s="3"/>
+      <c r="B304" s="4"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
-    </row>
-    <row r="305" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
-      <c r="B305" s="3"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
-    </row>
-    <row r="306" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
-      <c r="B306" s="3"/>
+      <c r="B306" s="4"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
-    </row>
-    <row r="307" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
-      <c r="B307" s="3"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
-    </row>
-    <row r="308" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
-      <c r="B308" s="3"/>
+      <c r="B308" s="4"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
-    </row>
-    <row r="309" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
-      <c r="B309" s="3"/>
+      <c r="B309" s="4"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
-    </row>
-    <row r="310" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
-      <c r="B310" s="3"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
-    </row>
-    <row r="311" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
-      <c r="B311" s="3"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
-    </row>
-    <row r="312" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
-      <c r="B312" s="3"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
-    </row>
-    <row r="313" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
-      <c r="B313" s="3"/>
+      <c r="B313" s="4"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
-    </row>
-    <row r="314" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
-      <c r="B314" s="3"/>
+      <c r="B314" s="4"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
-    </row>
-    <row r="315" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
-      <c r="B315" s="3"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
-    </row>
-    <row r="316" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
-      <c r="B316" s="3"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
-    </row>
-    <row r="317" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
-      <c r="B317" s="3"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
-    </row>
-    <row r="318" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
-      <c r="B318" s="3"/>
+      <c r="B318" s="4"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
-    </row>
-    <row r="319" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
-      <c r="B319" s="3"/>
+      <c r="B319" s="4"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
-    </row>
-    <row r="320" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
-      <c r="B320" s="3"/>
+      <c r="B320" s="4"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
-    </row>
-    <row r="321" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
-      <c r="B321" s="3"/>
+      <c r="B321" s="4"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
-    </row>
-    <row r="322" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
-      <c r="B322" s="3"/>
+      <c r="B322" s="4"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
-    </row>
-    <row r="323" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
-      <c r="B323" s="3"/>
+      <c r="B323" s="4"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
-    </row>
-    <row r="324" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
-      <c r="B324" s="3"/>
+      <c r="B324" s="4"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
-    </row>
-    <row r="325" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
-      <c r="B325" s="3"/>
+      <c r="B325" s="4"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
-    </row>
-    <row r="326" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
-      <c r="B326" s="3"/>
+      <c r="B326" s="4"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
-    </row>
-    <row r="327" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
-      <c r="B327" s="3"/>
+      <c r="B327" s="4"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
-    </row>
-    <row r="328" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
-      <c r="B328" s="3"/>
+      <c r="B328" s="4"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
-    </row>
-    <row r="329" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
-      <c r="B329" s="3"/>
+      <c r="B329" s="4"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
-    </row>
-    <row r="330" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
-      <c r="B330" s="3"/>
+      <c r="B330" s="4"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
-    </row>
-    <row r="331" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
-      <c r="B331" s="3"/>
+      <c r="B331" s="4"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
-    </row>
-    <row r="332" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
-      <c r="B332" s="3"/>
+      <c r="B332" s="4"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
-    </row>
-    <row r="333" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
-      <c r="B333" s="3"/>
+      <c r="B333" s="4"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
-    </row>
-    <row r="334" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
-      <c r="B334" s="3"/>
+      <c r="B334" s="4"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
-    </row>
-    <row r="335" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
-      <c r="B335" s="3"/>
+      <c r="B335" s="4"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
-    </row>
-    <row r="336" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
-      <c r="B336" s="3"/>
+      <c r="B336" s="4"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
-    </row>
-    <row r="337" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
-      <c r="B337" s="3"/>
+      <c r="B337" s="4"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
-    </row>
-    <row r="338" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
-      <c r="B338" s="3"/>
+      <c r="B338" s="4"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
-    </row>
-    <row r="339" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
-      <c r="B339" s="3"/>
+      <c r="B339" s="4"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
-    </row>
-    <row r="340" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
-      <c r="B340" s="3"/>
+      <c r="B340" s="4"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
-    </row>
-    <row r="341" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
-      <c r="B341" s="3"/>
+      <c r="B341" s="4"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
-    </row>
-    <row r="342" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
-      <c r="B342" s="3"/>
+      <c r="B342" s="4"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
-    </row>
-    <row r="343" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
-      <c r="B343" s="3"/>
+      <c r="B343" s="4"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
-    </row>
-    <row r="344" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
-      <c r="B344" s="3"/>
+      <c r="B344" s="4"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
-    </row>
-    <row r="345" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
-      <c r="B345" s="3"/>
+      <c r="B345" s="4"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
-    </row>
-    <row r="346" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
-      <c r="B346" s="3"/>
+      <c r="B346" s="4"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
-    </row>
-    <row r="347" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
-      <c r="B347" s="3"/>
+      <c r="B347" s="4"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
-    </row>
-    <row r="348" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
-      <c r="B348" s="3"/>
+      <c r="B348" s="4"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
-    </row>
-    <row r="349" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
-      <c r="B349" s="3"/>
+      <c r="B349" s="4"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
-    </row>
-    <row r="350" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
-      <c r="B350" s="3"/>
+      <c r="B350" s="4"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
-    </row>
-    <row r="351" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
-      <c r="B351" s="3"/>
+      <c r="B351" s="4"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
-    </row>
-    <row r="352" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
-      <c r="B352" s="3"/>
+      <c r="B352" s="4"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
-    </row>
-    <row r="353" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
-      <c r="B353" s="3"/>
+      <c r="B353" s="4"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
-    </row>
-    <row r="354" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
-      <c r="B354" s="3"/>
+      <c r="B354" s="4"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
-    </row>
-    <row r="355" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
-      <c r="B355" s="3"/>
+      <c r="B355" s="4"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
-    </row>
-    <row r="356" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
-      <c r="B356" s="3"/>
+      <c r="B356" s="4"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
-    </row>
-    <row r="357" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
-      <c r="B357" s="3"/>
+      <c r="B357" s="4"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
-    </row>
-    <row r="358" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
-      <c r="B358" s="3"/>
+      <c r="B358" s="4"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
-    </row>
-    <row r="359" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
-      <c r="B359" s="3"/>
+      <c r="B359" s="4"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
-    </row>
-    <row r="360" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
-      <c r="B360" s="3"/>
+      <c r="B360" s="4"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
-    </row>
-    <row r="361" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
-      <c r="B361" s="3"/>
+      <c r="B361" s="4"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
-    </row>
-    <row r="362" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
-      <c r="B362" s="3"/>
+      <c r="B362" s="4"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
-    </row>
-    <row r="363" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
-      <c r="B363" s="3"/>
+      <c r="B363" s="4"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
-    </row>
-    <row r="364" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
-      <c r="B364" s="3"/>
+      <c r="B364" s="4"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
-    </row>
-    <row r="365" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
-      <c r="B365" s="3"/>
+      <c r="B365" s="4"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
-    </row>
-    <row r="366" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
-      <c r="B366" s="3"/>
+      <c r="B366" s="4"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
-    </row>
-    <row r="367" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
-      <c r="B367" s="3"/>
+      <c r="B367" s="4"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
-    </row>
-    <row r="368" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
-      <c r="B368" s="3"/>
+      <c r="B368" s="4"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
-    </row>
-    <row r="369" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
-      <c r="B369" s="3"/>
+      <c r="B369" s="4"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
-    </row>
-    <row r="370" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
-      <c r="B370" s="3"/>
+      <c r="B370" s="4"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
-    </row>
-    <row r="371" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
-      <c r="B371" s="3"/>
+      <c r="B371" s="4"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
-    </row>
-    <row r="372" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
-      <c r="B372" s="3"/>
+      <c r="B372" s="4"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
-    </row>
-    <row r="373" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
-      <c r="B373" s="3"/>
+      <c r="B373" s="4"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
-    </row>
-    <row r="374" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
-      <c r="B374" s="3"/>
+      <c r="B374" s="4"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
-    </row>
-    <row r="375" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
-      <c r="B375" s="3"/>
+      <c r="B375" s="4"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
-    </row>
-    <row r="376" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
-      <c r="B376" s="3"/>
+      <c r="B376" s="4"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
-    </row>
-    <row r="377" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
-      <c r="B377" s="3"/>
+      <c r="B377" s="4"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
-    </row>
-    <row r="378" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
-      <c r="B378" s="3"/>
+      <c r="B378" s="4"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
-    </row>
-    <row r="379" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
-      <c r="B379" s="3"/>
+      <c r="B379" s="4"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
-    </row>
-    <row r="380" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
-      <c r="B380" s="3"/>
+      <c r="B380" s="4"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
-    </row>
-    <row r="381" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
-      <c r="B381" s="3"/>
+      <c r="B381" s="4"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
-    </row>
-    <row r="382" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
-      <c r="B382" s="3"/>
+      <c r="B382" s="4"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
-    </row>
-    <row r="383" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
-      <c r="B383" s="3"/>
+      <c r="B383" s="4"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
-    </row>
-    <row r="384" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
-      <c r="B384" s="3"/>
+      <c r="B384" s="4"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
-    </row>
-    <row r="385" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
-      <c r="B385" s="3"/>
+      <c r="B385" s="4"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
-    </row>
-    <row r="386" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
-      <c r="B386" s="3"/>
+      <c r="B386" s="4"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
-    </row>
-    <row r="387" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
-      <c r="B387" s="3"/>
+      <c r="B387" s="4"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
-    </row>
-    <row r="388" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
-      <c r="B388" s="3"/>
+      <c r="B388" s="4"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
-    </row>
-    <row r="389" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
-      <c r="B389" s="3"/>
+      <c r="B389" s="4"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
-    </row>
-    <row r="390" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
-      <c r="B390" s="3"/>
+      <c r="B390" s="4"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
-    </row>
-    <row r="391" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
-      <c r="B391" s="3"/>
+      <c r="B391" s="4"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
-    </row>
-    <row r="392" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
-      <c r="B392" s="3"/>
+      <c r="B392" s="4"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
-    </row>
-    <row r="393" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
-      <c r="B393" s="3"/>
+      <c r="B393" s="4"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
-    </row>
-    <row r="394" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
-      <c r="B394" s="3"/>
+      <c r="B394" s="4"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
-    </row>
-    <row r="395" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
-      <c r="B395" s="3"/>
+      <c r="B395" s="4"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
-    </row>
-    <row r="396" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
-      <c r="B396" s="3"/>
+      <c r="B396" s="4"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
-    </row>
-    <row r="397" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
-      <c r="B397" s="3"/>
+      <c r="B397" s="4"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
-    </row>
-    <row r="398" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
-      <c r="B398" s="3"/>
+      <c r="B398" s="4"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
-    </row>
-    <row r="399" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
-      <c r="B399" s="3"/>
+      <c r="B399" s="4"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
-    </row>
-    <row r="400" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
-      <c r="B400" s="3"/>
+      <c r="B400" s="4"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
-    </row>
-    <row r="401" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
-      <c r="B401" s="3"/>
+      <c r="B401" s="4"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
-    </row>
-    <row r="402" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
-      <c r="B402" s="3"/>
+      <c r="B402" s="4"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
-    </row>
-    <row r="403" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
-      <c r="B403" s="3"/>
+      <c r="B403" s="4"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
-    </row>
-    <row r="404" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
-      <c r="B404" s="3"/>
+      <c r="B404" s="4"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
-    </row>
-    <row r="405" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
-      <c r="B405" s="3"/>
+      <c r="B405" s="4"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
-    </row>
-    <row r="406" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F405" s="3"/>
+    </row>
+    <row r="406" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
-      <c r="B406" s="3"/>
+      <c r="B406" s="4"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
-    </row>
-    <row r="407" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
-      <c r="B407" s="3"/>
+      <c r="B407" s="4"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
-    </row>
-    <row r="408" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
-      <c r="B408" s="3"/>
+      <c r="B408" s="4"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
-    </row>
-    <row r="409" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
-      <c r="B409" s="3"/>
+      <c r="B409" s="4"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
-    </row>
-    <row r="410" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
-      <c r="B410" s="3"/>
+      <c r="B410" s="4"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
-    </row>
-    <row r="411" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
-      <c r="B411" s="3"/>
+      <c r="B411" s="4"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
-    </row>
-    <row r="412" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
-      <c r="B412" s="3"/>
+      <c r="B412" s="4"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
-    </row>
-    <row r="413" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F412" s="3"/>
+    </row>
+    <row r="413" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
-      <c r="B413" s="3"/>
+      <c r="B413" s="4"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
-    </row>
-    <row r="414" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
-      <c r="B414" s="3"/>
+      <c r="B414" s="4"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
-    </row>
-    <row r="415" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F414" s="3"/>
+    </row>
+    <row r="415" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
-      <c r="B415" s="3"/>
+      <c r="B415" s="4"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
-    </row>
-    <row r="416" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F415" s="3"/>
+    </row>
+    <row r="416" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
-      <c r="B416" s="3"/>
+      <c r="B416" s="4"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
-    </row>
-    <row r="417" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F416" s="3"/>
+    </row>
+    <row r="417" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
-      <c r="B417" s="3"/>
+      <c r="B417" s="4"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
-    </row>
-    <row r="418" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
-      <c r="B418" s="3"/>
+      <c r="B418" s="4"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
-    </row>
-    <row r="419" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F418" s="3"/>
+    </row>
+    <row r="419" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
-      <c r="B419" s="3"/>
+      <c r="B419" s="4"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
-    </row>
-    <row r="420" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
-      <c r="B420" s="3"/>
+      <c r="B420" s="4"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
-    </row>
-    <row r="421" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
-      <c r="B421" s="3"/>
+      <c r="B421" s="4"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
-    </row>
-    <row r="422" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
-      <c r="B422" s="3"/>
+      <c r="B422" s="4"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
-    </row>
-    <row r="423" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
-      <c r="B423" s="3"/>
+      <c r="B423" s="4"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-    </row>
-    <row r="424" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
-      <c r="B424" s="3"/>
+      <c r="B424" s="4"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
-    </row>
-    <row r="425" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
-      <c r="B425" s="3"/>
+      <c r="B425" s="4"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
-    </row>
-    <row r="426" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
-      <c r="B426" s="3"/>
+      <c r="B426" s="4"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
-    </row>
-    <row r="427" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
-      <c r="B427" s="3"/>
+      <c r="B427" s="4"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
-    </row>
-    <row r="428" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F427" s="3"/>
+    </row>
+    <row r="428" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
-      <c r="B428" s="3"/>
+      <c r="B428" s="4"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
-    </row>
-    <row r="429" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F428" s="3"/>
+    </row>
+    <row r="429" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
-      <c r="B429" s="3"/>
+      <c r="B429" s="4"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
-    </row>
-    <row r="430" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F429" s="3"/>
+    </row>
+    <row r="430" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
-      <c r="B430" s="3"/>
+      <c r="B430" s="4"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
-    </row>
-    <row r="431" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
-      <c r="B431" s="3"/>
+      <c r="B431" s="4"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
-    </row>
-    <row r="432" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F431" s="3"/>
+    </row>
+    <row r="432" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
-      <c r="B432" s="3"/>
+      <c r="B432" s="4"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
-    </row>
-    <row r="433" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F432" s="3"/>
+    </row>
+    <row r="433" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
-      <c r="B433" s="3"/>
+      <c r="B433" s="4"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
-    </row>
-    <row r="434" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F433" s="3"/>
+    </row>
+    <row r="434" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
-      <c r="B434" s="3"/>
+      <c r="B434" s="4"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
-    </row>
-    <row r="435" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F434" s="3"/>
+    </row>
+    <row r="435" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
-      <c r="B435" s="3"/>
+      <c r="B435" s="4"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
-    </row>
-    <row r="436" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F435" s="3"/>
+    </row>
+    <row r="436" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
-      <c r="B436" s="3"/>
+      <c r="B436" s="4"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
-    </row>
-    <row r="437" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F436" s="3"/>
+    </row>
+    <row r="437" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
-      <c r="B437" s="3"/>
+      <c r="B437" s="4"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
-    </row>
-    <row r="438" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F437" s="3"/>
+    </row>
+    <row r="438" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
-      <c r="B438" s="3"/>
+      <c r="B438" s="4"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
-    </row>
-    <row r="439" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F438" s="3"/>
+    </row>
+    <row r="439" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
-      <c r="B439" s="3"/>
+      <c r="B439" s="4"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
-    </row>
-    <row r="440" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F439" s="3"/>
+    </row>
+    <row r="440" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
-      <c r="B440" s="3"/>
+      <c r="B440" s="4"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
-    </row>
-    <row r="441" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F440" s="3"/>
+    </row>
+    <row r="441" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
-      <c r="B441" s="3"/>
+      <c r="B441" s="4"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
-    </row>
-    <row r="442" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F441" s="3"/>
+    </row>
+    <row r="442" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
-      <c r="B442" s="3"/>
+      <c r="B442" s="4"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
-    </row>
-    <row r="443" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F442" s="3"/>
+    </row>
+    <row r="443" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
-      <c r="B443" s="3"/>
+      <c r="B443" s="4"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
-    </row>
-    <row r="444" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F443" s="3"/>
+    </row>
+    <row r="444" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
-      <c r="B444" s="3"/>
+      <c r="B444" s="4"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
-    </row>
-    <row r="445" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F444" s="3"/>
+    </row>
+    <row r="445" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
-      <c r="B445" s="3"/>
+      <c r="B445" s="4"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
-    </row>
-    <row r="446" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F445" s="3"/>
+    </row>
+    <row r="446" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
-      <c r="B446" s="3"/>
+      <c r="B446" s="4"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
-    </row>
-    <row r="447" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F446" s="3"/>
+    </row>
+    <row r="447" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
-      <c r="B447" s="3"/>
+      <c r="B447" s="4"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
-    </row>
-    <row r="448" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F447" s="3"/>
+    </row>
+    <row r="448" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
-      <c r="B448" s="3"/>
+      <c r="B448" s="4"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
-    </row>
-    <row r="449" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F448" s="3"/>
+    </row>
+    <row r="449" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
-      <c r="B449" s="3"/>
+      <c r="B449" s="4"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
-    </row>
-    <row r="450" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F449" s="3"/>
+    </row>
+    <row r="450" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
-      <c r="B450" s="3"/>
+      <c r="B450" s="4"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
-    </row>
-    <row r="451" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F450" s="3"/>
+    </row>
+    <row r="451" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
-      <c r="B451" s="3"/>
+      <c r="B451" s="4"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
-    </row>
-    <row r="452" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F451" s="3"/>
+    </row>
+    <row r="452" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
-      <c r="B452" s="3"/>
+      <c r="B452" s="4"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
-    </row>
-    <row r="453" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F452" s="3"/>
+    </row>
+    <row r="453" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
-      <c r="B453" s="3"/>
+      <c r="B453" s="4"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
-    </row>
-    <row r="454" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F453" s="3"/>
+    </row>
+    <row r="454" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
-      <c r="B454" s="3"/>
+      <c r="B454" s="4"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
-    </row>
-    <row r="455" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F454" s="3"/>
+    </row>
+    <row r="455" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
-      <c r="B455" s="3"/>
+      <c r="B455" s="4"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
-    </row>
-    <row r="456" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F455" s="3"/>
+    </row>
+    <row r="456" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
-      <c r="B456" s="3"/>
+      <c r="B456" s="4"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
-    </row>
-    <row r="457" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F456" s="3"/>
+    </row>
+    <row r="457" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
-      <c r="B457" s="3"/>
+      <c r="B457" s="4"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
-    </row>
-    <row r="458" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F457" s="3"/>
+    </row>
+    <row r="458" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
-      <c r="B458" s="3"/>
+      <c r="B458" s="4"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
-    </row>
-    <row r="459" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F458" s="3"/>
+    </row>
+    <row r="459" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
-      <c r="B459" s="3"/>
+      <c r="B459" s="4"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
-    </row>
-    <row r="460" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F459" s="3"/>
+    </row>
+    <row r="460" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
-      <c r="B460" s="3"/>
+      <c r="B460" s="4"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
-    </row>
-    <row r="461" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F460" s="3"/>
+    </row>
+    <row r="461" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
-      <c r="B461" s="3"/>
+      <c r="B461" s="4"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
-    </row>
-    <row r="462" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F461" s="3"/>
+    </row>
+    <row r="462" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
-      <c r="B462" s="3"/>
+      <c r="B462" s="4"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
-    </row>
-    <row r="463" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F462" s="3"/>
+    </row>
+    <row r="463" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
-      <c r="B463" s="3"/>
+      <c r="B463" s="4"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
-    </row>
-    <row r="464" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F463" s="3"/>
+    </row>
+    <row r="464" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
-      <c r="B464" s="3"/>
+      <c r="B464" s="4"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
-    </row>
-    <row r="465" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F464" s="3"/>
+    </row>
+    <row r="465" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
-      <c r="B465" s="3"/>
+      <c r="B465" s="4"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
-    </row>
-    <row r="466" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F465" s="3"/>
+    </row>
+    <row r="466" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
-      <c r="B466" s="3"/>
+      <c r="B466" s="4"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
-    </row>
-    <row r="467" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F466" s="3"/>
+    </row>
+    <row r="467" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
-      <c r="B467" s="3"/>
+      <c r="B467" s="4"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
-    </row>
-    <row r="468" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F467" s="3"/>
+    </row>
+    <row r="468" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
-      <c r="B468" s="3"/>
+      <c r="B468" s="4"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
-    </row>
-    <row r="469" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F468" s="3"/>
+    </row>
+    <row r="469" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
-      <c r="B469" s="3"/>
+      <c r="B469" s="4"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
-    </row>
-    <row r="470" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F469" s="3"/>
+    </row>
+    <row r="470" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
-      <c r="B470" s="3"/>
+      <c r="B470" s="4"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
-    </row>
-    <row r="471" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F470" s="3"/>
+    </row>
+    <row r="471" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
-      <c r="B471" s="3"/>
+      <c r="B471" s="4"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
-    </row>
-    <row r="472" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F471" s="3"/>
+    </row>
+    <row r="472" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
-      <c r="B472" s="3"/>
+      <c r="B472" s="4"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
-    </row>
-    <row r="473" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F472" s="3"/>
+    </row>
+    <row r="473" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
-      <c r="B473" s="3"/>
+      <c r="B473" s="4"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
-    </row>
-    <row r="474" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F473" s="3"/>
+    </row>
+    <row r="474" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
-      <c r="B474" s="3"/>
+      <c r="B474" s="4"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
-    </row>
-    <row r="475" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F474" s="3"/>
+    </row>
+    <row r="475" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
-      <c r="B475" s="3"/>
+      <c r="B475" s="4"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
-    </row>
-    <row r="476" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F475" s="3"/>
+    </row>
+    <row r="476" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
-      <c r="B476" s="3"/>
+      <c r="B476" s="4"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
-    </row>
-    <row r="477" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F476" s="3"/>
+    </row>
+    <row r="477" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
-      <c r="B477" s="3"/>
+      <c r="B477" s="4"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
-    </row>
-    <row r="478" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F477" s="3"/>
+    </row>
+    <row r="478" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
-      <c r="B478" s="3"/>
+      <c r="B478" s="4"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
-    </row>
-    <row r="479" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F478" s="3"/>
+    </row>
+    <row r="479" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
-      <c r="B479" s="3"/>
+      <c r="B479" s="4"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
-    </row>
-    <row r="480" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F479" s="3"/>
+    </row>
+    <row r="480" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
-      <c r="B480" s="3"/>
+      <c r="B480" s="4"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
-    </row>
-    <row r="481" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F480" s="3"/>
+    </row>
+    <row r="481" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
-      <c r="B481" s="3"/>
+      <c r="B481" s="4"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
-    </row>
-    <row r="482" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F481" s="3"/>
+    </row>
+    <row r="482" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
-      <c r="B482" s="3"/>
+      <c r="B482" s="4"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
-    </row>
-    <row r="483" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F482" s="3"/>
+    </row>
+    <row r="483" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
-      <c r="B483" s="3"/>
+      <c r="B483" s="4"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
-    </row>
-    <row r="484" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F483" s="3"/>
+    </row>
+    <row r="484" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
-      <c r="B484" s="3"/>
+      <c r="B484" s="4"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
-    </row>
-    <row r="485" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F484" s="3"/>
+    </row>
+    <row r="485" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
-      <c r="B485" s="3"/>
+      <c r="B485" s="4"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
-    </row>
-    <row r="486" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F485" s="3"/>
+    </row>
+    <row r="486" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
-      <c r="B486" s="3"/>
+      <c r="B486" s="4"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
-    </row>
-    <row r="487" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F486" s="3"/>
+    </row>
+    <row r="487" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
-      <c r="B487" s="3"/>
+      <c r="B487" s="4"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
-    </row>
-    <row r="488" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F487" s="3"/>
+    </row>
+    <row r="488" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
-      <c r="B488" s="3"/>
+      <c r="B488" s="4"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
-    </row>
-    <row r="489" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F488" s="3"/>
+    </row>
+    <row r="489" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
-      <c r="B489" s="3"/>
+      <c r="B489" s="4"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
-    </row>
-    <row r="490" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F489" s="3"/>
+    </row>
+    <row r="490" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
-      <c r="B490" s="3"/>
+      <c r="B490" s="4"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
-    </row>
-    <row r="491" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F490" s="3"/>
+    </row>
+    <row r="491" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
-      <c r="B491" s="3"/>
+      <c r="B491" s="4"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
-    </row>
-    <row r="492" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F491" s="3"/>
+    </row>
+    <row r="492" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
-      <c r="B492" s="3"/>
+      <c r="B492" s="4"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
-    </row>
-    <row r="493" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F492" s="3"/>
+    </row>
+    <row r="493" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
-      <c r="B493" s="3"/>
+      <c r="B493" s="4"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
-    </row>
-    <row r="494" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F493" s="3"/>
+    </row>
+    <row r="494" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
-      <c r="B494" s="3"/>
+      <c r="B494" s="4"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
-    </row>
-    <row r="495" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F494" s="3"/>
+    </row>
+    <row r="495" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
-      <c r="B495" s="3"/>
+      <c r="B495" s="4"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
-    </row>
-    <row r="496" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F495" s="3"/>
+    </row>
+    <row r="496" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
-      <c r="B496" s="3"/>
+      <c r="B496" s="4"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
-    </row>
-    <row r="497" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F496" s="3"/>
+    </row>
+    <row r="497" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
-      <c r="B497" s="3"/>
+      <c r="B497" s="4"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
-    </row>
-    <row r="498" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F497" s="3"/>
+    </row>
+    <row r="498" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
-      <c r="B498" s="3"/>
+      <c r="B498" s="4"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
-    </row>
-    <row r="499" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F498" s="3"/>
+    </row>
+    <row r="499" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
-      <c r="B499" s="3"/>
+      <c r="B499" s="4"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
-    </row>
-    <row r="500" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F499" s="3"/>
+    </row>
+    <row r="500" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
-      <c r="B500" s="3"/>
+      <c r="B500" s="4"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
-    </row>
-    <row r="501" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
-      <c r="B501" s="3"/>
+      <c r="B501" s="4"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
-    </row>
-    <row r="502" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F501" s="3"/>
+    </row>
+    <row r="502" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
-      <c r="B502" s="3"/>
+      <c r="B502" s="4"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
-    </row>
-    <row r="503" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F502" s="3"/>
+    </row>
+    <row r="503" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
-      <c r="B503" s="3"/>
+      <c r="B503" s="4"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
-    </row>
-    <row r="504" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F503" s="3"/>
+    </row>
+    <row r="504" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
-      <c r="B504" s="3"/>
+      <c r="B504" s="4"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
-    </row>
-    <row r="505" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F504" s="3"/>
+    </row>
+    <row r="505" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
-      <c r="B505" s="3"/>
+      <c r="B505" s="4"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
-    </row>
-    <row r="506" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F505" s="3"/>
+    </row>
+    <row r="506" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
-      <c r="B506" s="3"/>
+      <c r="B506" s="4"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
-    </row>
-    <row r="507" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F506" s="3"/>
+    </row>
+    <row r="507" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
-      <c r="B507" s="3"/>
+      <c r="B507" s="4"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
-    </row>
-    <row r="508" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F507" s="3"/>
+    </row>
+    <row r="508" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
-      <c r="B508" s="3"/>
+      <c r="B508" s="4"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
-    </row>
-    <row r="509" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F508" s="3"/>
+    </row>
+    <row r="509" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
-      <c r="B509" s="3"/>
+      <c r="B509" s="4"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
-    </row>
-    <row r="510" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F509" s="3"/>
+    </row>
+    <row r="510" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
-      <c r="B510" s="3"/>
+      <c r="B510" s="4"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
-    </row>
-    <row r="511" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F510" s="3"/>
+    </row>
+    <row r="511" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
-      <c r="B511" s="3"/>
+      <c r="B511" s="4"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
-    </row>
-    <row r="512" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F511" s="3"/>
+    </row>
+    <row r="512" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
-      <c r="B512" s="3"/>
+      <c r="B512" s="4"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
-    </row>
-    <row r="513" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F512" s="3"/>
+    </row>
+    <row r="513" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
-      <c r="B513" s="3"/>
+      <c r="B513" s="4"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
-    </row>
-    <row r="514" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F513" s="3"/>
+    </row>
+    <row r="514" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
-      <c r="B514" s="3"/>
+      <c r="B514" s="4"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
-    </row>
-    <row r="515" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F514" s="3"/>
+    </row>
+    <row r="515" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
-      <c r="B515" s="3"/>
+      <c r="B515" s="4"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
-    </row>
-    <row r="516" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F515" s="3"/>
+    </row>
+    <row r="516" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
-      <c r="B516" s="3"/>
+      <c r="B516" s="4"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
-    </row>
-    <row r="517" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F516" s="3"/>
+    </row>
+    <row r="517" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
-      <c r="B517" s="3"/>
+      <c r="B517" s="4"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
-    </row>
-    <row r="518" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F517" s="3"/>
+    </row>
+    <row r="518" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
-      <c r="B518" s="3"/>
+      <c r="B518" s="4"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
-    </row>
-    <row r="519" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F518" s="3"/>
+    </row>
+    <row r="519" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
-      <c r="B519" s="3"/>
+      <c r="B519" s="4"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
-    </row>
-    <row r="520" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F519" s="3"/>
+    </row>
+    <row r="520" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
-      <c r="B520" s="3"/>
+      <c r="B520" s="4"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
-    </row>
-    <row r="521" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F520" s="3"/>
+    </row>
+    <row r="521" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
-      <c r="B521" s="3"/>
+      <c r="B521" s="4"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
-    </row>
-    <row r="522" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F521" s="3"/>
+    </row>
+    <row r="522" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
-      <c r="B522" s="3"/>
+      <c r="B522" s="4"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
-    </row>
-    <row r="523" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F522" s="3"/>
+    </row>
+    <row r="523" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
-      <c r="B523" s="3"/>
+      <c r="B523" s="4"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
-    </row>
-    <row r="524" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F523" s="3"/>
+    </row>
+    <row r="524" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
-      <c r="B524" s="3"/>
+      <c r="B524" s="4"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
-    </row>
-    <row r="525" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F524" s="3"/>
+    </row>
+    <row r="525" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
-      <c r="B525" s="3"/>
+      <c r="B525" s="4"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
-    </row>
-    <row r="526" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F525" s="3"/>
+    </row>
+    <row r="526" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
-      <c r="B526" s="3"/>
+      <c r="B526" s="4"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
-    </row>
-    <row r="527" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F526" s="3"/>
+    </row>
+    <row r="527" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
-      <c r="B527" s="3"/>
+      <c r="B527" s="4"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
-    </row>
-    <row r="528" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F527" s="3"/>
+    </row>
+    <row r="528" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
-      <c r="B528" s="3"/>
+      <c r="B528" s="4"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
-    </row>
-    <row r="529" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F528" s="3"/>
+    </row>
+    <row r="529" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
-      <c r="B529" s="3"/>
+      <c r="B529" s="4"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
-    </row>
-    <row r="530" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F529" s="3"/>
+    </row>
+    <row r="530" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
-      <c r="B530" s="3"/>
+      <c r="B530" s="4"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
-    </row>
-    <row r="531" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F530" s="3"/>
+    </row>
+    <row r="531" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
-      <c r="B531" s="3"/>
+      <c r="B531" s="4"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
-    </row>
-    <row r="532" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F531" s="3"/>
+    </row>
+    <row r="532" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
-      <c r="B532" s="3"/>
+      <c r="B532" s="4"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
-    </row>
-    <row r="533" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F532" s="3"/>
+    </row>
+    <row r="533" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
-      <c r="B533" s="3"/>
+      <c r="B533" s="4"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
-    </row>
-    <row r="534" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F533" s="3"/>
+    </row>
+    <row r="534" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
-      <c r="B534" s="3"/>
+      <c r="B534" s="4"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
-    </row>
-    <row r="535" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F534" s="3"/>
+    </row>
+    <row r="535" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
-      <c r="B535" s="3"/>
+      <c r="B535" s="4"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
-    </row>
-    <row r="536" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F535" s="3"/>
+    </row>
+    <row r="536" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
-      <c r="B536" s="3"/>
+      <c r="B536" s="4"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
-    </row>
-    <row r="537" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F536" s="3"/>
+    </row>
+    <row r="537" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
-      <c r="B537" s="3"/>
+      <c r="B537" s="4"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
-    </row>
-    <row r="538" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F537" s="3"/>
+    </row>
+    <row r="538" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
-      <c r="B538" s="3"/>
+      <c r="B538" s="4"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
-    </row>
-    <row r="539" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F538" s="3"/>
+    </row>
+    <row r="539" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
-      <c r="B539" s="3"/>
+      <c r="B539" s="4"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
-    </row>
-    <row r="540" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F539" s="3"/>
+    </row>
+    <row r="540" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
-      <c r="B540" s="3"/>
+      <c r="B540" s="4"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
-    </row>
-    <row r="541" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F540" s="3"/>
+    </row>
+    <row r="541" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
-      <c r="B541" s="3"/>
+      <c r="B541" s="4"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
-    </row>
-    <row r="542" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F541" s="3"/>
+    </row>
+    <row r="542" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
-      <c r="B542" s="3"/>
+      <c r="B542" s="4"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
-    </row>
-    <row r="543" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F542" s="3"/>
+    </row>
+    <row r="543" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
-      <c r="B543" s="3"/>
+      <c r="B543" s="4"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
-    </row>
-    <row r="544" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F543" s="3"/>
+    </row>
+    <row r="544" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
-      <c r="B544" s="3"/>
+      <c r="B544" s="4"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
-    </row>
-    <row r="545" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F544" s="3"/>
+    </row>
+    <row r="545" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
-      <c r="B545" s="3"/>
+      <c r="B545" s="4"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
-    </row>
-    <row r="546" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F545" s="3"/>
+    </row>
+    <row r="546" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
-      <c r="B546" s="3"/>
+      <c r="B546" s="4"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
-    </row>
-    <row r="547" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F546" s="3"/>
+    </row>
+    <row r="547" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
-      <c r="B547" s="3"/>
+      <c r="B547" s="4"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
-    </row>
-    <row r="548" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F547" s="3"/>
+    </row>
+    <row r="548" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
-      <c r="B548" s="3"/>
+      <c r="B548" s="4"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
-    </row>
-    <row r="549" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F548" s="3"/>
+    </row>
+    <row r="549" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
-      <c r="B549" s="3"/>
+      <c r="B549" s="4"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
-    </row>
-    <row r="550" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F549" s="3"/>
+    </row>
+    <row r="550" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
-      <c r="B550" s="3"/>
+      <c r="B550" s="4"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
-    </row>
-    <row r="551" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F550" s="3"/>
+    </row>
+    <row r="551" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
-      <c r="B551" s="3"/>
+      <c r="B551" s="4"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
-    </row>
-    <row r="552" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F551" s="3"/>
+    </row>
+    <row r="552" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
-      <c r="B552" s="3"/>
+      <c r="B552" s="4"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
-    </row>
-    <row r="553" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F552" s="3"/>
+    </row>
+    <row r="553" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
-      <c r="B553" s="3"/>
+      <c r="B553" s="4"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
-    </row>
-    <row r="554" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F553" s="3"/>
+    </row>
+    <row r="554" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
-      <c r="B554" s="3"/>
+      <c r="B554" s="4"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
-    </row>
-    <row r="555" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F554" s="3"/>
+    </row>
+    <row r="555" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
-      <c r="B555" s="3"/>
+      <c r="B555" s="4"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
-    </row>
-    <row r="556" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F555" s="3"/>
+    </row>
+    <row r="556" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
-      <c r="B556" s="3"/>
+      <c r="B556" s="4"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
-    </row>
-    <row r="557" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F556" s="3"/>
+    </row>
+    <row r="557" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
-      <c r="B557" s="3"/>
+      <c r="B557" s="4"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
-    </row>
-    <row r="558" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F557" s="3"/>
+    </row>
+    <row r="558" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
-      <c r="B558" s="3"/>
+      <c r="B558" s="4"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
-    </row>
-    <row r="559" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F558" s="3"/>
+    </row>
+    <row r="559" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
-      <c r="B559" s="3"/>
+      <c r="B559" s="4"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
-    </row>
-    <row r="560" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F559" s="3"/>
+    </row>
+    <row r="560" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
-      <c r="B560" s="3"/>
+      <c r="B560" s="4"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
-    </row>
-    <row r="561" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F560" s="3"/>
+    </row>
+    <row r="561" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
-      <c r="B561" s="3"/>
+      <c r="B561" s="4"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
-    </row>
-    <row r="562" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F561" s="3"/>
+    </row>
+    <row r="562" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
-      <c r="B562" s="3"/>
+      <c r="B562" s="4"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
-    </row>
-    <row r="563" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F562" s="3"/>
+    </row>
+    <row r="563" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
-      <c r="B563" s="3"/>
+      <c r="B563" s="4"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
-    </row>
-    <row r="564" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F563" s="3"/>
+    </row>
+    <row r="564" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
-      <c r="B564" s="3"/>
+      <c r="B564" s="4"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
-    </row>
-    <row r="565" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F564" s="3"/>
+    </row>
+    <row r="565" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
-      <c r="B565" s="3"/>
+      <c r="B565" s="4"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
+      <c r="F565" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1-100/完成时间表mac.xlsx
+++ b/1-100/完成时间表mac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11D8DA-31BE-43CC-913B-F0D347DAFD0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB59BD0-DDC5-436D-B41C-00D525FE9380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IW565"/>
+  <dimension ref="A1:IW562"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B130" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3564,46 +3564,66 @@
     </row>
     <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="4">
-        <v>150</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="C151" s="3">
+        <f>13 * 60 + 35</f>
+        <v>815</v>
+      </c>
+      <c r="D151" s="3">
+        <v>83</v>
+      </c>
+      <c r="E151" s="3">
+        <v>34</v>
+      </c>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="4">
-        <v>151</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="C152" s="3">
+        <f>60*47 + 47</f>
+        <v>2867</v>
+      </c>
+      <c r="D152" s="3">
+        <v>83</v>
+      </c>
+      <c r="E152" s="3">
+        <v>51</v>
+      </c>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="4">
-        <v>152</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1240</v>
+      </c>
+      <c r="D153" s="3">
+        <v>92</v>
+      </c>
+      <c r="E153" s="3">
+        <v>34</v>
+      </c>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -3612,10 +3632,10 @@
     </row>
     <row r="155" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -3624,10 +3644,10 @@
     </row>
     <row r="156" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -3636,10 +3656,10 @@
     </row>
     <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B157" s="4">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -3648,10 +3668,10 @@
     </row>
     <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B158" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -3660,10 +3680,10 @@
     </row>
     <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B159" s="4">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -3672,10 +3692,10 @@
     </row>
     <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B160" s="4">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -3684,10 +3704,10 @@
     </row>
     <row r="161" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B161" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -3696,10 +3716,10 @@
     </row>
     <row r="162" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B162" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -3708,10 +3728,10 @@
     </row>
     <row r="163" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B163" s="4">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -3720,10 +3740,10 @@
     </row>
     <row r="164" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B164" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -3732,10 +3752,10 @@
     </row>
     <row r="165" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -3744,10 +3764,10 @@
     </row>
     <row r="166" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B166" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -3756,10 +3776,10 @@
     </row>
     <row r="167" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B167" s="4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -3768,10 +3788,10 @@
     </row>
     <row r="168" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B168" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -3780,10 +3800,10 @@
     </row>
     <row r="169" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B169" s="4">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -3792,10 +3812,10 @@
     </row>
     <row r="170" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B170" s="4">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -3804,10 +3824,10 @@
     </row>
     <row r="171" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B171" s="4">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -3816,10 +3836,10 @@
     </row>
     <row r="172" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B172" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -3828,10 +3848,10 @@
     </row>
     <row r="173" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B173" s="4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -3840,10 +3860,10 @@
     </row>
     <row r="174" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B174" s="4">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -3852,10 +3872,10 @@
     </row>
     <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B175" s="4">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -3864,10 +3884,10 @@
     </row>
     <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B176" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -3876,10 +3896,10 @@
     </row>
     <row r="177" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B177" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -3888,10 +3908,10 @@
     </row>
     <row r="178" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B178" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -3900,10 +3920,10 @@
     </row>
     <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B179" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -3912,10 +3932,10 @@
     </row>
     <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B180" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -3924,10 +3944,10 @@
     </row>
     <row r="181" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B181" s="4">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -3936,10 +3956,10 @@
     </row>
     <row r="182" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B182" s="4">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -3948,10 +3968,10 @@
     </row>
     <row r="183" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B183" s="4">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -3960,10 +3980,10 @@
     </row>
     <row r="184" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B184" s="4">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -3972,10 +3992,10 @@
     </row>
     <row r="185" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B185" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -3984,10 +4004,10 @@
     </row>
     <row r="186" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B186" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -3996,10 +4016,10 @@
     </row>
     <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B187" s="4">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -4008,10 +4028,10 @@
     </row>
     <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B188" s="4">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -4020,10 +4040,10 @@
     </row>
     <row r="189" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B189" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -4032,10 +4052,10 @@
     </row>
     <row r="190" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B190" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -4044,10 +4064,10 @@
     </row>
     <row r="191" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B191" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -4056,10 +4076,10 @@
     </row>
     <row r="192" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B192" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -4068,10 +4088,10 @@
     </row>
     <row r="193" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B193" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -4080,10 +4100,10 @@
     </row>
     <row r="194" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B194" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -4092,10 +4112,10 @@
     </row>
     <row r="195" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B195" s="4">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -4104,10 +4124,10 @@
     </row>
     <row r="196" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B196" s="4">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -4116,10 +4136,10 @@
     </row>
     <row r="197" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B197" s="4">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -4128,10 +4148,10 @@
     </row>
     <row r="198" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B198" s="4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -4140,10 +4160,10 @@
     </row>
     <row r="199" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B199" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -4152,10 +4172,10 @@
     </row>
     <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B200" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -4164,10 +4184,10 @@
     </row>
     <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B201" s="4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -4176,10 +4196,10 @@
     </row>
     <row r="202" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B202" s="4">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -4188,10 +4208,10 @@
     </row>
     <row r="203" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B203" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -4200,10 +4220,10 @@
     </row>
     <row r="204" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B204" s="4">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -4212,10 +4232,10 @@
     </row>
     <row r="205" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B205" s="4">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -4224,10 +4244,10 @@
     </row>
     <row r="206" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B206" s="4">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -4236,10 +4256,10 @@
     </row>
     <row r="207" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B207" s="4">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -4248,10 +4268,10 @@
     </row>
     <row r="208" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B208" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -4260,10 +4280,10 @@
     </row>
     <row r="209" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B209" s="4">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -4272,10 +4292,10 @@
     </row>
     <row r="210" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B210" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -4284,10 +4304,10 @@
     </row>
     <row r="211" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B211" s="4">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -4296,10 +4316,10 @@
     </row>
     <row r="212" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B212" s="4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -4308,10 +4328,10 @@
     </row>
     <row r="213" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B213" s="4">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -4320,10 +4340,10 @@
     </row>
     <row r="214" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B214" s="4">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -4332,10 +4352,10 @@
     </row>
     <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B215" s="4">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -4344,10 +4364,10 @@
     </row>
     <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B216" s="4">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -4356,10 +4376,10 @@
     </row>
     <row r="217" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B217" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -4368,10 +4388,10 @@
     </row>
     <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B218" s="4">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -4380,10 +4400,10 @@
     </row>
     <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B219" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -4392,10 +4412,10 @@
     </row>
     <row r="220" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B220" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -4404,10 +4424,10 @@
     </row>
     <row r="221" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B221" s="4">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -4416,10 +4436,10 @@
     </row>
     <row r="222" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B222" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -4428,10 +4448,10 @@
     </row>
     <row r="223" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B223" s="4">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -4440,10 +4460,10 @@
     </row>
     <row r="224" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B224" s="4">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -4452,10 +4472,10 @@
     </row>
     <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B225" s="4">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -4464,10 +4484,10 @@
     </row>
     <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B226" s="4">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -4476,10 +4496,10 @@
     </row>
     <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B227" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -4488,10 +4508,10 @@
     </row>
     <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B228" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -4500,10 +4520,10 @@
     </row>
     <row r="229" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B229" s="4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -4512,10 +4532,10 @@
     </row>
     <row r="230" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B230" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -4524,10 +4544,10 @@
     </row>
     <row r="231" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B231" s="4">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -4536,10 +4556,10 @@
     </row>
     <row r="232" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B232" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -4548,10 +4568,10 @@
     </row>
     <row r="233" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B233" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -4560,10 +4580,10 @@
     </row>
     <row r="234" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B234" s="4">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -4572,10 +4592,10 @@
     </row>
     <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B235" s="4">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -4584,10 +4604,10 @@
     </row>
     <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B236" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -4596,10 +4616,10 @@
     </row>
     <row r="237" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B237" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -4608,10 +4628,10 @@
     </row>
     <row r="238" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B238" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -4620,10 +4640,10 @@
     </row>
     <row r="239" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B239" s="4">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -4632,10 +4652,10 @@
     </row>
     <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B240" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -4644,10 +4664,10 @@
     </row>
     <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B241" s="4">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -4656,10 +4676,10 @@
     </row>
     <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B242" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -4668,10 +4688,10 @@
     </row>
     <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B243" s="4">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -4680,10 +4700,10 @@
     </row>
     <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B244" s="4">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -4692,10 +4712,10 @@
     </row>
     <row r="245" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B245" s="4">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -4704,10 +4724,10 @@
     </row>
     <row r="246" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B246" s="4">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -4716,10 +4736,10 @@
     </row>
     <row r="247" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B247" s="4">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -4728,10 +4748,10 @@
     </row>
     <row r="248" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B248" s="4">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -4739,36 +4759,24 @@
       <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
-        <v>248</v>
-      </c>
-      <c r="B249" s="4">
-        <v>248</v>
-      </c>
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
     <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <v>249</v>
-      </c>
-      <c r="B250" s="4">
-        <v>249</v>
-      </c>
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
     <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
-        <v>250</v>
-      </c>
-      <c r="B251" s="4">
-        <v>250</v>
-      </c>
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -7261,30 +7269,6 @@
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
-    </row>
-    <row r="563" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="4"/>
-      <c r="B563" s="4"/>
-      <c r="C563" s="3"/>
-      <c r="D563" s="3"/>
-      <c r="E563" s="3"/>
-      <c r="F563" s="3"/>
-    </row>
-    <row r="564" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="4"/>
-      <c r="B564" s="4"/>
-      <c r="C564" s="3"/>
-      <c r="D564" s="3"/>
-      <c r="E564" s="3"/>
-      <c r="F564" s="3"/>
-    </row>
-    <row r="565" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="4"/>
-      <c r="B565" s="4"/>
-      <c r="C565" s="3"/>
-      <c r="D565" s="3"/>
-      <c r="E565" s="3"/>
-      <c r="F565" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1-100/完成时间表mac.xlsx
+++ b/1-100/完成时间表mac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\-Leetcode\1-100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB59BD0-DDC5-436D-B41C-00D525FE9380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFC279-3B9F-490B-94FA-ADD02BC1C5EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW562"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B217" workbookViewId="0">
+      <selection activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4609,9 +4609,15 @@
       <c r="B236" s="4">
         <v>238</v>
       </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+      <c r="C236" s="3">
+        <v>20</v>
+      </c>
+      <c r="D236" s="3">
+        <v>98</v>
+      </c>
+      <c r="E236" s="3">
+        <v>7200</v>
+      </c>
       <c r="F236" s="3"/>
     </row>
     <row r="237" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
